--- a/outputs/data5.xlsx
+++ b/outputs/data5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itapp\PycharmProjects\WLalgorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itapp\PycharmProjects\WLalgorithm\outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A48F35A-571B-41C7-AC90-C4D0230093AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2F8D04-0361-42BE-90B8-051F42C0BA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -135,7 +136,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -346,178 +347,178 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="58"/>
                 <c:pt idx="0">
-                  <c:v>1.4710724353790283E-2</c:v>
+                  <c:v>1.5108025074005127E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4208500385284425E-2</c:v>
+                  <c:v>3.4658598899841311E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.1658265590667722E-2</c:v>
+                  <c:v>6.8067920207977292E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1250655770301819</c:v>
+                  <c:v>0.11918106079101562</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19258491992950438</c:v>
+                  <c:v>0.19502828121185303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2909717082977295</c:v>
+                  <c:v>0.28239612579345702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.40287425518035891</c:v>
+                  <c:v>0.41087719202041628</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.54987930059432988</c:v>
+                  <c:v>0.5621460437774658</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.73546110391616826</c:v>
+                  <c:v>0.77088818550109861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95021021366119385</c:v>
+                  <c:v>1.0002996087074281</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2067758321762085</c:v>
+                  <c:v>1.300372815132141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5251396894454956</c:v>
+                  <c:v>1.6012347102165223</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.8478095769882201</c:v>
+                  <c:v>1.9939987063407898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.2654221653938293</c:v>
+                  <c:v>2.4326207518577574</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7907900214195251</c:v>
+                  <c:v>2.9519534826278688</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3729584932327272</c:v>
+                  <c:v>3.5641952395439147</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9815445065498354</c:v>
+                  <c:v>4.2078184962272642</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.6828718066215513</c:v>
+                  <c:v>4.9576729178428653</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5294960141181946</c:v>
+                  <c:v>5.8305163979530334</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.5756957888603207</c:v>
+                  <c:v>6.7812542080879208</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.3505916237831119</c:v>
+                  <c:v>7.8293803930282593</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.5418362379074093</c:v>
+                  <c:v>8.9864595532417297</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.7326534271240241</c:v>
+                  <c:v>10.168542110919953</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.981121432781219</c:v>
+                  <c:v>11.694521975517272</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>12.510766386985779</c:v>
+                  <c:v>13.026031684875488</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>14.274041545391082</c:v>
+                  <c:v>14.800410604476928</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>15.978692173957825</c:v>
+                  <c:v>16.409777700901031</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>17.763752353191375</c:v>
+                  <c:v>18.413971257209777</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>19.489958715438842</c:v>
+                  <c:v>20.471458864212035</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.015918600559235</c:v>
+                  <c:v>22.866657197475433</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24.175698387622834</c:v>
+                  <c:v>25.230137622356416</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>26.346555948257446</c:v>
+                  <c:v>27.757339894771576</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>28.890684843063354</c:v>
+                  <c:v>30.005713796615602</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>31.677944171428681</c:v>
+                  <c:v>33.293748664855954</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.84750945568085</c:v>
+                  <c:v>36.001544547080996</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37.57590284347534</c:v>
+                  <c:v>39.25683331489563</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>40.739371418952942</c:v>
+                  <c:v>42.592449843883514</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>44.212825334072114</c:v>
+                  <c:v>46.302414059638977</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>48.385829579830173</c:v>
+                  <c:v>50.257099676132199</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>52.482846260070801</c:v>
+                  <c:v>54.143302953243257</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>56.45081889629364</c:v>
+                  <c:v>58.254310250282288</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60.167720806598666</c:v>
+                  <c:v>63.238282299041749</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>64.790620851516721</c:v>
+                  <c:v>67.464593088626856</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>69.378226912021631</c:v>
+                  <c:v>72.46311217546463</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>74.917316007614133</c:v>
+                  <c:v>78.686856997013095</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>81.240009474754331</c:v>
+                  <c:v>84.339560902118677</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>85.898631179332739</c:v>
+                  <c:v>90.39476203918457</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>92.076489043235782</c:v>
+                  <c:v>96.886826360225683</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>97.942158722877508</c:v>
+                  <c:v>103.50756814479828</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>104.61159099340439</c:v>
+                  <c:v>110.56970576047897</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>112.1806039571762</c:v>
+                  <c:v>118.76173791885375</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>119.77769092321395</c:v>
+                  <c:v>125.35460199117661</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>127.40759080648422</c:v>
+                  <c:v>133.3817894935608</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>135.73342962265014</c:v>
+                  <c:v>142.4816018462181</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>143.72471742630006</c:v>
+                  <c:v>150.9507729768753</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>153.07637965679169</c:v>
+                  <c:v>160.70605885982513</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>161.36742137670518</c:v>
+                  <c:v>170.05313756465912</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>172.8086324930191</c:v>
+                  <c:v>182.6762857556343</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -525,7 +526,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-67EA-45DA-9DE4-63231B15387C}"/>
+              <c16:uniqueId val="{00000000-3AE9-456D-A6EB-8CEB1155FA4D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -537,11 +538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="896153952"/>
-        <c:axId val="896163520"/>
+        <c:axId val="1741680224"/>
+        <c:axId val="1409134240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="896153952"/>
+        <c:axId val="1741680224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,12 +599,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896163520"/>
+        <c:crossAx val="1409134240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="896163520"/>
+        <c:axId val="1409134240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +661,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="896153952"/>
+        <c:crossAx val="1741680224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1277,22 +1278,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05E12486-6EFC-2E91-D877-15C4AD652FF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E6615D-A3B2-3764-D203-4D4C5E6E4C6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,8 +1601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:V58"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1611,68 +1612,68 @@
         <v>30</v>
       </c>
       <c r="B1">
-        <v>1.595759391784668E-2</v>
+        <v>1.4959812164306641E-2</v>
       </c>
       <c r="C1">
-        <v>1.4959812164306641E-2</v>
+        <v>1.4929056167602541E-2</v>
       </c>
       <c r="D1">
         <v>1.3962507247924799E-2</v>
       </c>
       <c r="E1">
-        <v>1.595759391784668E-2</v>
+        <v>1.4989376068115229E-2</v>
       </c>
       <c r="F1">
-        <v>1.496100425720215E-2</v>
+        <v>1.495695114135742E-2</v>
       </c>
       <c r="G1">
         <v>1.396274566650391E-2</v>
       </c>
       <c r="H1">
+        <v>1.496458053588867E-2</v>
+      </c>
+      <c r="I1">
+        <v>1.6954660415649411E-2</v>
+      </c>
+      <c r="J1">
+        <v>1.6924142837524411E-2</v>
+      </c>
+      <c r="K1">
+        <v>1.496005058288574E-2</v>
+      </c>
+      <c r="L1">
+        <v>1.5957355499267582E-2</v>
+      </c>
+      <c r="M1">
+        <v>1.3962507247924799E-2</v>
+      </c>
+      <c r="N1">
+        <v>1.4959812164306641E-2</v>
+      </c>
+      <c r="O1">
         <v>1.496028900146484E-2</v>
       </c>
-      <c r="I1">
-        <v>1.39622688293457E-2</v>
-      </c>
-      <c r="J1">
-        <v>1.496028900146484E-2</v>
-      </c>
-      <c r="K1">
-        <v>1.4959812164306641E-2</v>
-      </c>
-      <c r="L1">
-        <v>1.4959812164306641E-2</v>
-      </c>
-      <c r="M1">
+      <c r="P1">
+        <v>1.4958620071411129E-2</v>
+      </c>
+      <c r="Q1">
+        <v>1.496005058288574E-2</v>
+      </c>
+      <c r="R1">
         <v>1.396274566650391E-2</v>
       </c>
-      <c r="N1">
-        <v>1.496028900146484E-2</v>
-      </c>
-      <c r="O1">
-        <v>1.3962507247924799E-2</v>
-      </c>
-      <c r="P1">
-        <v>1.496005058288574E-2</v>
-      </c>
-      <c r="Q1">
-        <v>1.3962507247924799E-2</v>
-      </c>
-      <c r="R1">
-        <v>1.496005058288574E-2</v>
-      </c>
       <c r="S1">
-        <v>1.3962507247924799E-2</v>
+        <v>1.6955375671386719E-2</v>
       </c>
       <c r="T1">
         <v>1.4959812164306641E-2</v>
       </c>
       <c r="U1">
-        <v>1.496028900146484E-2</v>
+        <v>1.496005058288574E-2</v>
       </c>
       <c r="V1">
         <f>AVERAGE(B1:U1)</f>
-        <v>1.4710724353790283E-2</v>
+        <v>1.5108025074005127E-2</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
@@ -1680,68 +1681,68 @@
         <v>40</v>
       </c>
       <c r="B2">
-        <v>3.4906625747680657E-2</v>
+        <v>3.4906148910522461E-2</v>
       </c>
       <c r="C2">
         <v>3.3909082412719727E-2</v>
       </c>
       <c r="D2">
-        <v>3.6899805068969727E-2</v>
+        <v>3.4908056259155273E-2</v>
       </c>
       <c r="E2">
-        <v>3.4907102584838867E-2</v>
+        <v>3.3909320831298828E-2</v>
       </c>
       <c r="F2">
-        <v>3.4907817840576172E-2</v>
+        <v>3.3909082412719727E-2</v>
       </c>
       <c r="G2">
+        <v>3.5930395126342773E-2</v>
+      </c>
+      <c r="H2">
+        <v>3.4879446029663093E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.4908294677734382E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.3933639526367188E-2</v>
+      </c>
+      <c r="K2">
+        <v>3.390955924987793E-2</v>
+      </c>
+      <c r="L2">
+        <v>3.4881114959716797E-2</v>
+      </c>
+      <c r="M2">
+        <v>3.4906864166259773E-2</v>
+      </c>
+      <c r="N2">
+        <v>3.5902500152587891E-2</v>
+      </c>
+      <c r="O2">
+        <v>3.5904645919799798E-2</v>
+      </c>
+      <c r="P2">
         <v>3.4906625747680657E-2</v>
       </c>
-      <c r="H2">
-        <v>3.3909320831298828E-2</v>
-      </c>
-      <c r="I2">
-        <v>3.4906625747680657E-2</v>
-      </c>
-      <c r="J2">
-        <v>3.3909082412719727E-2</v>
-      </c>
-      <c r="K2">
-        <v>3.4905433654785163E-2</v>
-      </c>
-      <c r="L2">
-        <v>3.3910512924194343E-2</v>
-      </c>
-      <c r="M2">
-        <v>3.390955924987793E-2</v>
-      </c>
-      <c r="N2">
-        <v>3.2911777496337891E-2</v>
-      </c>
-      <c r="O2">
-        <v>3.3908843994140618E-2</v>
-      </c>
-      <c r="P2">
-        <v>3.2912015914916992E-2</v>
-      </c>
       <c r="Q2">
-        <v>3.3908605575561523E-2</v>
+        <v>3.3939838409423828E-2</v>
       </c>
       <c r="R2">
-        <v>3.2911777496337891E-2</v>
+        <v>3.4902095794677727E-2</v>
       </c>
       <c r="S2">
-        <v>3.3910751342773438E-2</v>
+        <v>3.3914089202880859E-2</v>
       </c>
       <c r="T2">
-        <v>3.3909320831298828E-2</v>
+        <v>3.4906864166259773E-2</v>
       </c>
       <c r="U2">
-        <v>3.3909320831298828E-2</v>
+        <v>3.3904314041137702E-2</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:V58" si="0">AVERAGE(B2:U2)</f>
-        <v>3.4208500385284425E-2</v>
+        <v>3.4658598899841311E-2</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -1749,68 +1750,68 @@
         <v>50</v>
       </c>
       <c r="B3">
+        <v>6.6847801208496094E-2</v>
+      </c>
+      <c r="C3">
+        <v>6.6826105117797852E-2</v>
+      </c>
+      <c r="D3">
+        <v>6.7815780639648438E-2</v>
+      </c>
+      <c r="E3">
+        <v>6.7817211151123047E-2</v>
+      </c>
+      <c r="F3">
+        <v>6.6792726516723633E-2</v>
+      </c>
+      <c r="G3">
+        <v>6.7850351333618164E-2</v>
+      </c>
+      <c r="H3">
+        <v>6.6789388656616211E-2</v>
+      </c>
+      <c r="I3">
+        <v>6.8816661834716797E-2</v>
+      </c>
+      <c r="J3">
+        <v>6.7849159240722656E-2</v>
+      </c>
+      <c r="K3">
+        <v>6.6791296005249023E-2</v>
+      </c>
+      <c r="L3">
         <v>6.7818403244018555E-2</v>
       </c>
-      <c r="C3">
-        <v>6.5824031829833984E-2</v>
-      </c>
-      <c r="D3">
-        <v>6.5823793411254883E-2</v>
-      </c>
-      <c r="E3">
-        <v>6.7818641662597656E-2</v>
-      </c>
-      <c r="F3">
-        <v>6.6821575164794922E-2</v>
-      </c>
-      <c r="G3">
-        <v>6.4826250076293945E-2</v>
-      </c>
-      <c r="H3">
+      <c r="M3">
+        <v>7.0811033248901367E-2</v>
+      </c>
+      <c r="N3">
+        <v>6.8814754486083984E-2</v>
+      </c>
+      <c r="O3">
+        <v>6.8847894668579102E-2</v>
+      </c>
+      <c r="P3">
+        <v>6.6821813583374023E-2</v>
+      </c>
+      <c r="Q3">
+        <v>6.7812442779541016E-2</v>
+      </c>
+      <c r="R3">
         <v>6.682133674621582E-2</v>
       </c>
-      <c r="I3">
-        <v>0.1805160045623779</v>
-      </c>
-      <c r="J3">
-        <v>6.5823793411254883E-2</v>
-      </c>
-      <c r="K3">
-        <v>6.4826488494873047E-2</v>
-      </c>
-      <c r="L3">
-        <v>6.6848278045654297E-2</v>
-      </c>
-      <c r="M3">
-        <v>6.4826250076293945E-2</v>
-      </c>
-      <c r="N3">
-        <v>6.6794872283935547E-2</v>
-      </c>
-      <c r="O3">
-        <v>6.5824031829833984E-2</v>
-      </c>
-      <c r="P3">
-        <v>6.4826488494873047E-2</v>
-      </c>
-      <c r="Q3">
-        <v>6.4826488494873047E-2</v>
-      </c>
-      <c r="R3">
-        <v>6.4826488494873047E-2</v>
-      </c>
       <c r="S3">
-        <v>6.682276725769043E-2</v>
+        <v>7.3776960372924805E-2</v>
       </c>
       <c r="T3">
-        <v>6.4826488494873047E-2</v>
+        <v>6.7818164825439453E-2</v>
       </c>
       <c r="U3">
-        <v>6.5822839736938477E-2</v>
+        <v>6.7819118499755859E-2</v>
       </c>
       <c r="V3">
         <f t="shared" si="0"/>
-        <v>7.1658265590667722E-2</v>
+        <v>6.8067920207977292E-2</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1818,68 +1819,68 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>0.1136975288391113</v>
+        <v>0.1177105903625488</v>
       </c>
       <c r="C4">
-        <v>0.11369633674621581</v>
+        <v>0.1186873912811279</v>
       </c>
       <c r="D4">
-        <v>0.11269831657409669</v>
+        <v>0.11765456199646</v>
       </c>
       <c r="E4">
-        <v>0.1126973628997803</v>
+        <v>0.1226720809936523</v>
       </c>
       <c r="F4">
-        <v>0.23639464378356931</v>
+        <v>0.1206760406494141</v>
       </c>
       <c r="G4">
-        <v>0.1126716136932373</v>
+        <v>0.11771154403686521</v>
       </c>
       <c r="H4">
-        <v>0.1147265434265137</v>
+        <v>0.1206505298614502</v>
       </c>
       <c r="I4">
-        <v>0.11369419097900391</v>
+        <v>0.1177167892456055</v>
       </c>
       <c r="J4">
-        <v>0.1136641502380371</v>
+        <v>0.11765456199646</v>
       </c>
       <c r="K4">
-        <v>0.1136960983276367</v>
+        <v>0.1206769943237305</v>
       </c>
       <c r="L4">
-        <v>0.11173272132873539</v>
+        <v>0.1187131404876709</v>
       </c>
       <c r="M4">
-        <v>0.1126670837402344</v>
+        <v>0.1186521053314209</v>
       </c>
       <c r="N4">
-        <v>0.1177186965942383</v>
+        <v>0.1207075119018555</v>
       </c>
       <c r="O4">
-        <v>0.1126976013183594</v>
+        <v>0.11865115165710451</v>
       </c>
       <c r="P4">
-        <v>0.11166882514953611</v>
+        <v>0.1186833381652832</v>
       </c>
       <c r="Q4">
-        <v>0.1117012500762939</v>
+        <v>0.11871433258056641</v>
       </c>
       <c r="R4">
-        <v>0.1117012500762939</v>
+        <v>0.1236703395843506</v>
       </c>
       <c r="S4">
-        <v>0.22938776016235349</v>
+        <v>0.11867499351501461</v>
       </c>
       <c r="T4">
-        <v>0.1126985549926758</v>
+        <v>0.117685079574585</v>
       </c>
       <c r="U4">
-        <v>0.1117010116577148</v>
+        <v>0.1176581382751465</v>
       </c>
       <c r="V4">
         <f t="shared" si="0"/>
-        <v>0.1250655770301819</v>
+        <v>0.11918106079101562</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -1887,68 +1888,68 @@
         <v>70</v>
       </c>
       <c r="B5">
-        <v>0.18550372123718259</v>
+        <v>0.1874995231628418</v>
       </c>
       <c r="C5">
-        <v>0.18350791931152341</v>
+        <v>0.19051623344421389</v>
       </c>
       <c r="D5">
-        <v>0.1815145015716553</v>
+        <v>0.18747258186340329</v>
       </c>
       <c r="E5">
-        <v>0.1795201301574707</v>
+        <v>0.18749690055847171</v>
       </c>
       <c r="F5">
-        <v>0.18051719665527341</v>
+        <v>0.1895246505737305</v>
       </c>
       <c r="G5">
-        <v>0.18251299858093259</v>
+        <v>0.18849682807922361</v>
       </c>
       <c r="H5">
-        <v>0.18051743507385251</v>
+        <v>0.18846464157104489</v>
       </c>
       <c r="I5">
-        <v>0.29620766639709473</v>
+        <v>0.19248390197753909</v>
       </c>
       <c r="J5">
-        <v>0.1815145015716553</v>
+        <v>0.1904900074005127</v>
       </c>
       <c r="K5">
-        <v>0.1795198917388916</v>
+        <v>0.1884956359863281</v>
       </c>
       <c r="L5">
-        <v>0.1815145015716553</v>
+        <v>0.1894943714141846</v>
       </c>
       <c r="M5">
-        <v>0.1815142631530762</v>
+        <v>0.18849420547485349</v>
       </c>
       <c r="N5">
-        <v>0.18251204490661621</v>
+        <v>0.21941375732421881</v>
       </c>
       <c r="O5">
-        <v>0.1795198917388916</v>
+        <v>0.23337531089782709</v>
       </c>
       <c r="P5">
-        <v>0.1815145015716553</v>
+        <v>0.22739219665527341</v>
       </c>
       <c r="Q5">
-        <v>0.1775250434875488</v>
+        <v>0.18853259086608889</v>
       </c>
       <c r="R5">
-        <v>0.1805160045623779</v>
+        <v>0.188457727432251</v>
       </c>
       <c r="S5">
-        <v>0.29620766639709473</v>
+        <v>0.18749880790710449</v>
       </c>
       <c r="T5">
-        <v>0.1815147399902344</v>
+        <v>0.1964762210845947</v>
       </c>
       <c r="U5">
-        <v>0.1785237789154053</v>
+        <v>0.19048953056335449</v>
       </c>
       <c r="V5">
         <f t="shared" si="0"/>
-        <v>0.19258491992950438</v>
+        <v>0.19502828121185303</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -1956,68 +1957,68 @@
         <v>80</v>
       </c>
       <c r="B6">
-        <v>0.27426528930664063</v>
+        <v>0.28224372863769531</v>
       </c>
       <c r="C6">
-        <v>0.27230358123779302</v>
+        <v>0.28124761581420898</v>
       </c>
       <c r="D6">
-        <v>0.27523326873779302</v>
+        <v>0.28426671028137213</v>
       </c>
       <c r="E6">
-        <v>0.27027559280395508</v>
+        <v>0.2782282829284668</v>
       </c>
       <c r="F6">
-        <v>0.39295101165771479</v>
+        <v>0.28523850440978998</v>
       </c>
       <c r="G6">
-        <v>0.27127408981323242</v>
+        <v>0.28124809265136719</v>
       </c>
       <c r="H6">
-        <v>0.27526354789733892</v>
+        <v>0.29224801063537598</v>
       </c>
       <c r="I6">
-        <v>0.27429938316345209</v>
+        <v>0.28224492073059082</v>
       </c>
       <c r="J6">
-        <v>0.27522945404052729</v>
+        <v>0.28221273422241211</v>
       </c>
       <c r="K6">
-        <v>0.27330255508422852</v>
+        <v>0.28127932548522949</v>
       </c>
       <c r="L6">
-        <v>0.27326226234436041</v>
+        <v>0.28125381469726563</v>
       </c>
       <c r="M6">
-        <v>0.27327442169189448</v>
+        <v>0.28320574760437012</v>
       </c>
       <c r="N6">
-        <v>0.38992691040039063</v>
+        <v>0.27925300598144531</v>
       </c>
       <c r="O6">
-        <v>0.27027678489685059</v>
+        <v>0.28822875022888178</v>
       </c>
       <c r="P6">
-        <v>0.27227187156677252</v>
+        <v>0.28028035163879389</v>
       </c>
       <c r="Q6">
-        <v>0.2732694149017334</v>
+        <v>0.28323864936828608</v>
       </c>
       <c r="R6">
-        <v>0.27526354789733892</v>
+        <v>0.28321409225463873</v>
       </c>
       <c r="S6">
-        <v>0.27027702331542969</v>
+        <v>0.28124833106994629</v>
       </c>
       <c r="T6">
-        <v>0.27629327774047852</v>
+        <v>0.27728939056396479</v>
       </c>
       <c r="U6">
-        <v>0.39092087745666498</v>
+        <v>0.28025245666503912</v>
       </c>
       <c r="V6">
         <f t="shared" si="0"/>
-        <v>0.2909717082977295</v>
+        <v>0.28239612579345702</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -2025,68 +2026,68 @@
         <v>90</v>
       </c>
       <c r="B7">
-        <v>0.38397502899169922</v>
+        <v>0.40491533279418951</v>
       </c>
       <c r="C7">
-        <v>0.38898968696594238</v>
+        <v>0.40289068222045898</v>
       </c>
       <c r="D7">
-        <v>0.38493990898132319</v>
+        <v>0.4029231071472168</v>
       </c>
       <c r="E7">
-        <v>0.38499808311462402</v>
+        <v>0.40491676330566412</v>
       </c>
       <c r="F7">
-        <v>0.38996028900146479</v>
+        <v>0.40647292137146002</v>
       </c>
       <c r="G7">
-        <v>0.50461959838867188</v>
+        <v>0.40092563629150391</v>
       </c>
       <c r="H7">
-        <v>0.38499736785888672</v>
+        <v>0.40691161155700678</v>
       </c>
       <c r="I7">
-        <v>0.3859708309173584</v>
+        <v>0.40096116065978998</v>
       </c>
       <c r="J7">
-        <v>0.38294553756713873</v>
+        <v>0.46771621704101563</v>
       </c>
       <c r="K7">
-        <v>0.38898944854736328</v>
+        <v>0.46179437637329102</v>
       </c>
       <c r="L7">
-        <v>0.383941650390625</v>
+        <v>0.40990376472473139</v>
       </c>
       <c r="M7">
-        <v>0.49866771697998052</v>
+        <v>0.4029238224029541</v>
       </c>
       <c r="N7">
-        <v>0.37950801849365229</v>
+        <v>0.40989804267883301</v>
       </c>
       <c r="O7">
-        <v>0.38297557830810552</v>
+        <v>0.39993405342102051</v>
       </c>
       <c r="P7">
-        <v>0.38197827339172358</v>
+        <v>0.40488409996032709</v>
       </c>
       <c r="Q7">
-        <v>0.3839728832244873</v>
+        <v>0.39993071556091309</v>
       </c>
       <c r="R7">
-        <v>0.50664353370666504</v>
+        <v>0.40491652488708502</v>
       </c>
       <c r="S7">
-        <v>0.38497042655944819</v>
+        <v>0.41090202331542969</v>
       </c>
       <c r="T7">
-        <v>0.38448429107666021</v>
+        <v>0.40292191505432129</v>
       </c>
       <c r="U7">
-        <v>0.38995695114135742</v>
+        <v>0.41090106964111328</v>
       </c>
       <c r="V7">
         <f t="shared" si="0"/>
-        <v>0.40287425518035891</v>
+        <v>0.41087719202041628</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
@@ -2094,68 +2095,68 @@
         <v>100</v>
       </c>
       <c r="B8">
-        <v>0.52858805656433105</v>
+        <v>0.55054426193237305</v>
       </c>
       <c r="C8">
-        <v>0.64726877212524414</v>
+        <v>0.55150747299194336</v>
       </c>
       <c r="D8">
-        <v>0.5305793285369873</v>
+        <v>0.54853200912475586</v>
       </c>
       <c r="E8">
-        <v>0.52359938621520996</v>
+        <v>0.5495603084564209</v>
       </c>
       <c r="F8">
-        <v>0.52462863922119141</v>
+        <v>0.54852938652038574</v>
       </c>
       <c r="G8">
-        <v>0.52356958389282227</v>
+        <v>0.55349206924438477</v>
       </c>
       <c r="H8">
-        <v>0.64530420303344727</v>
+        <v>0.549560546875</v>
       </c>
       <c r="I8">
-        <v>0.53055071830749512</v>
+        <v>0.5505220890045166</v>
       </c>
       <c r="J8">
-        <v>0.5275876522064209</v>
+        <v>0.55648398399353027</v>
       </c>
       <c r="K8">
-        <v>0.52160477638244629</v>
+        <v>0.55950403213500977</v>
       </c>
       <c r="L8">
-        <v>0.52363705635070801</v>
+        <v>0.62931561470031738</v>
       </c>
       <c r="M8">
-        <v>0.64423942565917969</v>
+        <v>0.55451774597167969</v>
       </c>
       <c r="N8">
-        <v>0.52459836006164551</v>
+        <v>0.55052566528320313</v>
       </c>
       <c r="O8">
-        <v>0.52462911605834961</v>
+        <v>0.55156278610229492</v>
       </c>
       <c r="P8">
-        <v>0.52955126762390137</v>
+        <v>0.54952287673950195</v>
       </c>
       <c r="Q8">
-        <v>0.52858614921569824</v>
+        <v>0.54953145980834961</v>
       </c>
       <c r="R8">
-        <v>0.63929009437561035</v>
+        <v>0.54849934577941895</v>
       </c>
       <c r="S8">
-        <v>0.52861642837524414</v>
+        <v>0.5525214672088623</v>
       </c>
       <c r="T8">
-        <v>0.5245668888092041</v>
+        <v>0.68915820121765137</v>
       </c>
       <c r="U8">
-        <v>0.52659010887145996</v>
+        <v>0.5495295524597168</v>
       </c>
       <c r="V8">
         <f t="shared" si="0"/>
-        <v>0.54987930059432988</v>
+        <v>0.5621460437774658</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
@@ -2163,68 +2164,68 @@
         <v>110</v>
       </c>
       <c r="B9">
-        <v>0.82280111312866211</v>
+        <v>0.74404692649841309</v>
       </c>
       <c r="C9">
-        <v>0.71010065078735352</v>
+        <v>0.72904205322265625</v>
       </c>
       <c r="D9">
-        <v>0.70611166954040527</v>
+        <v>0.85667705535888672</v>
       </c>
       <c r="E9">
-        <v>0.70710897445678711</v>
+        <v>0.73503446578979492</v>
       </c>
       <c r="F9">
-        <v>0.82179999351501465</v>
+        <v>0.73702716827392578</v>
       </c>
       <c r="G9">
-        <v>0.70710897445678711</v>
+        <v>0.73204326629638672</v>
       </c>
       <c r="H9">
-        <v>0.7066349983215332</v>
+        <v>0.95247769355773926</v>
       </c>
       <c r="I9">
-        <v>0.70610952377319336</v>
+        <v>0.74999570846557617</v>
       </c>
       <c r="J9">
-        <v>0.81881022453308105</v>
+        <v>0.72705841064453125</v>
       </c>
       <c r="K9">
-        <v>0.70511555671691895</v>
+        <v>0.72805261611938477</v>
       </c>
       <c r="L9">
-        <v>0.7041168212890625</v>
+        <v>0.85966706275939941</v>
       </c>
       <c r="M9">
-        <v>0.7071385383605957</v>
+        <v>0.73705935478210449</v>
       </c>
       <c r="N9">
-        <v>0.82177257537841797</v>
+        <v>0.72901701927185059</v>
       </c>
       <c r="O9">
-        <v>0.71109604835510254</v>
+        <v>0.73403763771057129</v>
       </c>
       <c r="P9">
-        <v>0.70411849021911621</v>
+        <v>0.86072921752929688</v>
       </c>
       <c r="Q9">
-        <v>0.70411539077758789</v>
+        <v>0.73300600051879883</v>
       </c>
       <c r="R9">
-        <v>0.82479548454284668</v>
+        <v>0.73404717445373535</v>
       </c>
       <c r="S9">
-        <v>0.7071073055267334</v>
+        <v>0.74005293846130371</v>
       </c>
       <c r="T9">
-        <v>0.70611262321472168</v>
+        <v>0.85767269134521484</v>
       </c>
       <c r="U9">
-        <v>0.70714712142944336</v>
+        <v>0.74101924896240234</v>
       </c>
       <c r="V9">
         <f t="shared" si="0"/>
-        <v>0.73546110391616826</v>
+        <v>0.77088818550109861</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
@@ -2232,68 +2233,68 @@
         <v>120</v>
       </c>
       <c r="B10">
-        <v>0.91751265525817871</v>
+        <v>1.0432085990905759</v>
       </c>
       <c r="C10">
-        <v>0.91056489944458008</v>
+        <v>1.0811088085174561</v>
       </c>
       <c r="D10">
-        <v>0.90956735610961914</v>
+        <v>0.94746589660644531</v>
       </c>
       <c r="E10">
-        <v>1.028760433197021</v>
+        <v>0.94948983192443848</v>
       </c>
       <c r="F10">
-        <v>0.91857433319091797</v>
+        <v>1.074096202850342</v>
       </c>
       <c r="G10">
-        <v>0.91851329803466797</v>
+        <v>0.95348000526428223</v>
       </c>
       <c r="H10">
-        <v>1.0332353115081789</v>
+        <v>0.94646930694580078</v>
       </c>
       <c r="I10">
-        <v>0.91455531120300293</v>
+        <v>1.0880546569824221</v>
       </c>
       <c r="J10">
-        <v>0.91355657577514648</v>
+        <v>0.94749808311462402</v>
       </c>
       <c r="K10">
-        <v>1.0332663059234619</v>
+        <v>0.95444941520690918</v>
       </c>
       <c r="L10">
-        <v>0.91551971435546875</v>
+        <v>1.0471622943878169</v>
       </c>
       <c r="M10">
-        <v>0.91555166244506836</v>
+        <v>1.0960693359375</v>
       </c>
       <c r="N10">
-        <v>1.035265445709229</v>
+        <v>0.94949126243591309</v>
       </c>
       <c r="O10">
-        <v>0.91551828384399414</v>
+        <v>0.95145440101623535</v>
       </c>
       <c r="P10">
-        <v>0.9165802001953125</v>
+        <v>1.072099924087524</v>
       </c>
       <c r="Q10">
-        <v>0.91504335403442383</v>
+        <v>0.955474853515625</v>
       </c>
       <c r="R10">
-        <v>1.035264253616333</v>
+        <v>0.94942784309387207</v>
       </c>
       <c r="S10">
-        <v>0.91152858734130859</v>
+        <v>1.0796577930450439</v>
       </c>
       <c r="T10">
-        <v>0.91953897476196289</v>
+        <v>0.96638321876525879</v>
       </c>
       <c r="U10">
-        <v>1.026287317276001</v>
+        <v>0.95345044136047363</v>
       </c>
       <c r="V10">
         <f t="shared" si="0"/>
-        <v>0.95021021366119385</v>
+        <v>1.0002996087074281</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -2301,68 +2302,68 @@
         <v>130</v>
       </c>
       <c r="B11">
-        <v>1.166876554489136</v>
+        <v>1.455142498016357</v>
       </c>
       <c r="C11">
-        <v>1.2935101985931401</v>
+        <v>1.234659671783447</v>
       </c>
       <c r="D11">
-        <v>1.1648850440978999</v>
+        <v>1.2277152538299561</v>
       </c>
       <c r="E11">
-        <v>1.1579022407531741</v>
+        <v>1.361359596252441</v>
       </c>
       <c r="F11">
-        <v>1.2890691757202151</v>
+        <v>1.233697652816772</v>
       </c>
       <c r="G11">
-        <v>1.1569070816040039</v>
+        <v>1.227231025695801</v>
       </c>
       <c r="H11">
-        <v>1.1599299907684331</v>
+        <v>1.353379964828491</v>
       </c>
       <c r="I11">
-        <v>1.293657779693604</v>
+        <v>1.2297103404998779</v>
       </c>
       <c r="J11">
-        <v>1.159868001937866</v>
+        <v>1.453112125396729</v>
       </c>
       <c r="K11">
-        <v>1.1618907451629641</v>
+        <v>1.256638288497925</v>
       </c>
       <c r="L11">
-        <v>1.2905821800231929</v>
+        <v>1.231718778610229</v>
       </c>
       <c r="M11">
-        <v>1.1578691005706789</v>
+        <v>1.364334344863892</v>
       </c>
       <c r="N11">
-        <v>1.2915470600128169</v>
+        <v>1.238685607910156</v>
       </c>
       <c r="O11">
-        <v>1.1659977436065669</v>
+        <v>1.2332501411437991</v>
       </c>
       <c r="P11">
-        <v>1.156941175460815</v>
+        <v>1.3653218746185301</v>
       </c>
       <c r="Q11">
-        <v>1.296133756637573</v>
+        <v>1.2287435531616211</v>
       </c>
       <c r="R11">
-        <v>1.1658504009246831</v>
+        <v>1.2296783924102781</v>
       </c>
       <c r="S11">
-        <v>1.166622638702393</v>
+        <v>1.4750545024871831</v>
       </c>
       <c r="T11">
-        <v>1.2835357189178469</v>
+        <v>1.232702255249023</v>
       </c>
       <c r="U11">
-        <v>1.155940055847168</v>
+        <v>1.3753204345703121</v>
       </c>
       <c r="V11">
         <f t="shared" si="0"/>
-        <v>1.2067758321762085</v>
+        <v>1.300372815132141</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
@@ -2370,68 +2371,68 @@
         <v>140</v>
       </c>
       <c r="B12">
-        <v>1.59473705291748</v>
+        <v>1.526946544647217</v>
       </c>
       <c r="C12">
-        <v>1.473777294158936</v>
+        <v>1.5209310054779051</v>
       </c>
       <c r="D12">
-        <v>1.4630556106567381</v>
+        <v>1.6555745601654051</v>
       </c>
       <c r="E12">
-        <v>1.605736970901489</v>
+        <v>1.535887479782104</v>
       </c>
       <c r="F12">
-        <v>1.4610588550567629</v>
+        <v>1.7632520198822019</v>
       </c>
       <c r="G12">
-        <v>1.586782693862915</v>
+        <v>1.53688645362854</v>
       </c>
       <c r="H12">
-        <v>1.479018926620483</v>
+        <v>1.671560525894165</v>
       </c>
       <c r="I12">
-        <v>1.588750839233398</v>
+        <v>1.532015800476074</v>
       </c>
       <c r="J12">
-        <v>1.4622571468353269</v>
+        <v>1.532929420471191</v>
       </c>
       <c r="K12">
-        <v>1.4700708389282231</v>
+        <v>1.687482595443726</v>
       </c>
       <c r="L12">
-        <v>1.598691463470459</v>
+        <v>1.6063787937164311</v>
       </c>
       <c r="M12">
-        <v>1.4620897769927981</v>
+        <v>1.6735227108001709</v>
       </c>
       <c r="N12">
-        <v>1.591742992401123</v>
+        <v>1.5348930358886721</v>
       </c>
       <c r="O12">
-        <v>1.4681053161621089</v>
+        <v>1.6700854301452639</v>
       </c>
       <c r="P12">
-        <v>1.463764429092407</v>
+        <v>1.5338659286499019</v>
       </c>
       <c r="Q12">
-        <v>1.605711936950684</v>
+        <v>1.5358903408050539</v>
       </c>
       <c r="R12">
-        <v>1.4720630645751951</v>
+        <v>1.6595602035522461</v>
       </c>
       <c r="S12">
-        <v>1.589460611343384</v>
+        <v>1.6406412124633789</v>
       </c>
       <c r="T12">
-        <v>1.46308970451355</v>
+        <v>1.6695346832275391</v>
       </c>
       <c r="U12">
-        <v>1.60282826423645</v>
+        <v>1.5368554592132571</v>
       </c>
       <c r="V12">
         <f t="shared" si="0"/>
-        <v>1.5251396894454956</v>
+        <v>1.6012347102165223</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
@@ -2439,68 +2440,68 @@
         <v>150</v>
       </c>
       <c r="B13">
-        <v>1.793171167373657</v>
+        <v>2.0445303916931148</v>
       </c>
       <c r="C13">
-        <v>1.9203779697418211</v>
+        <v>1.9078965187072749</v>
       </c>
       <c r="D13">
-        <v>1.794233560562134</v>
+        <v>2.0535049438476558</v>
       </c>
       <c r="E13">
-        <v>1.9273695945739751</v>
+        <v>1.9857137203216551</v>
       </c>
       <c r="F13">
-        <v>1.790202856063843</v>
+        <v>2.060493946075439</v>
       </c>
       <c r="G13">
-        <v>1.926852703094482</v>
+        <v>1.9014256000518801</v>
       </c>
       <c r="H13">
-        <v>1.788466215133667</v>
+        <v>2.028541088104248</v>
       </c>
       <c r="I13">
-        <v>1.9178709983825679</v>
+        <v>1.8959281444549561</v>
       </c>
       <c r="J13">
-        <v>1.7897036075592041</v>
+        <v>2.1452591419219971</v>
       </c>
       <c r="K13">
-        <v>1.787251472473145</v>
+        <v>1.90690016746521</v>
       </c>
       <c r="L13">
-        <v>1.9128508567810061</v>
+        <v>1.918865919113159</v>
       </c>
       <c r="M13">
-        <v>1.818880081176758</v>
+        <v>2.0216224193572998</v>
       </c>
       <c r="N13">
-        <v>1.9143602848052981</v>
+        <v>1.9119968414306641</v>
       </c>
       <c r="O13">
-        <v>1.7882182598114009</v>
+        <v>2.1322956085205078</v>
       </c>
       <c r="P13">
-        <v>1.90593433380127</v>
+        <v>1.9098889827728269</v>
       </c>
       <c r="Q13">
-        <v>1.782720565795898</v>
+        <v>2.019598245620728</v>
       </c>
       <c r="R13">
-        <v>1.905903816223145</v>
+        <v>1.9059004783630371</v>
       </c>
       <c r="S13">
-        <v>1.7977035045623779</v>
+        <v>2.0305790901184082</v>
       </c>
       <c r="T13">
-        <v>1.9138824939727781</v>
+        <v>2.0614855289459229</v>
       </c>
       <c r="U13">
-        <v>1.780237197875977</v>
+        <v>2.03754734992981</v>
       </c>
       <c r="V13">
         <f t="shared" si="0"/>
-        <v>1.8478095769882201</v>
+        <v>1.9939987063407898</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
@@ -2508,68 +2509,68 @@
         <v>160</v>
       </c>
       <c r="B14">
-        <v>2.31181788444519</v>
+        <v>2.4025716781616211</v>
       </c>
       <c r="C14">
-        <v>2.3333067893981929</v>
+        <v>2.4853513240814209</v>
       </c>
       <c r="D14">
-        <v>2.2207024097442631</v>
+        <v>2.4713890552520752</v>
       </c>
       <c r="E14">
-        <v>2.3337900638580318</v>
+        <v>2.4145395755767818</v>
       </c>
       <c r="F14">
-        <v>2.1871542930603032</v>
+        <v>2.466427326202393</v>
       </c>
       <c r="G14">
-        <v>2.3243033885955811</v>
+        <v>2.328776597976685</v>
       </c>
       <c r="H14">
-        <v>2.210799932479858</v>
+        <v>2.4708795547485352</v>
       </c>
       <c r="I14">
-        <v>2.3217566013336182</v>
+        <v>2.411546945571899</v>
       </c>
       <c r="J14">
-        <v>2.187151193618774</v>
+        <v>2.4853520393371582</v>
       </c>
       <c r="K14">
-        <v>2.3155539035797119</v>
+        <v>2.324779748916626</v>
       </c>
       <c r="L14">
-        <v>2.1981203556060791</v>
+        <v>2.459924697875977</v>
       </c>
       <c r="M14">
-        <v>2.2973463535308838</v>
+        <v>2.535730123519897</v>
       </c>
       <c r="N14">
-        <v>2.3287708759307861</v>
+        <v>2.375674724578857</v>
       </c>
       <c r="O14">
-        <v>2.188179731369019</v>
+        <v>2.4883439540863042</v>
       </c>
       <c r="P14">
-        <v>2.3300473690032959</v>
+        <v>2.3382568359375</v>
       </c>
       <c r="Q14">
-        <v>2.1961255073547359</v>
+        <v>2.4783377647399898</v>
       </c>
       <c r="R14">
-        <v>2.3227887153625488</v>
+        <v>2.4529867172241211</v>
       </c>
       <c r="S14">
-        <v>2.1891105175018311</v>
+        <v>2.4603900909423828</v>
       </c>
       <c r="T14">
-        <v>2.317517757415771</v>
+        <v>2.3317618370056148</v>
       </c>
       <c r="U14">
-        <v>2.1940996646881099</v>
+        <v>2.469394445419312</v>
       </c>
       <c r="V14">
         <f t="shared" si="0"/>
-        <v>2.2654221653938293</v>
+        <v>2.4326207518577574</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
@@ -2577,68 +2578,68 @@
         <v>170</v>
       </c>
       <c r="B15">
-        <v>2.7067615985870361</v>
+        <v>3.0678236484527588</v>
       </c>
       <c r="C15">
-        <v>2.8340942859649658</v>
+        <v>2.8224184513092041</v>
       </c>
       <c r="D15">
-        <v>2.7018058300018311</v>
+        <v>2.9637801647186279</v>
       </c>
       <c r="E15">
-        <v>2.827527761459351</v>
+        <v>2.992960929870605</v>
       </c>
       <c r="F15">
-        <v>2.8553941249847412</v>
+        <v>2.9630744457244869</v>
       </c>
       <c r="G15">
-        <v>2.7855653762817378</v>
+        <v>2.972046852111816</v>
       </c>
       <c r="H15">
-        <v>2.9191844463348389</v>
+        <v>2.8314261436462398</v>
       </c>
       <c r="I15">
-        <v>2.8479728698730469</v>
+        <v>3.0650899410247798</v>
       </c>
       <c r="J15">
-        <v>2.689838171005249</v>
+        <v>3.002965927124023</v>
       </c>
       <c r="K15">
-        <v>2.8322336673736568</v>
+        <v>2.8224809169769292</v>
       </c>
       <c r="L15">
-        <v>2.7144184112548828</v>
+        <v>2.9790234565734859</v>
       </c>
       <c r="M15">
-        <v>2.830396413803101</v>
+        <v>3.0757453441619869</v>
       </c>
       <c r="N15">
-        <v>2.829971551895142</v>
+        <v>2.844389915466309</v>
       </c>
       <c r="O15">
-        <v>2.7037749290466309</v>
+        <v>2.9790632724761958</v>
       </c>
       <c r="P15">
-        <v>2.8305256366729741</v>
+        <v>2.8977260589599609</v>
       </c>
       <c r="Q15">
-        <v>2.8528985977172852</v>
+        <v>2.966102123260498</v>
       </c>
       <c r="R15">
-        <v>2.7087223529815669</v>
+        <v>2.9850096702575679</v>
       </c>
       <c r="S15">
-        <v>2.829432487487793</v>
+        <v>2.8588566780090332</v>
       </c>
       <c r="T15">
-        <v>2.6928319931030269</v>
+        <v>3.090731143951416</v>
       </c>
       <c r="U15">
-        <v>2.822449922561646</v>
+        <v>2.8583545684814449</v>
       </c>
       <c r="V15">
         <f t="shared" si="0"/>
-        <v>2.7907900214195251</v>
+        <v>2.9519534826278688</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
@@ -2646,68 +2647,68 @@
         <v>180</v>
       </c>
       <c r="B16">
-        <v>3.4099702835083008</v>
+        <v>3.4238383769989009</v>
       </c>
       <c r="C16">
-        <v>3.4323709011077881</v>
+        <v>3.740025520324707</v>
       </c>
       <c r="D16">
-        <v>3.2732467651367192</v>
+        <v>3.6452171802520752</v>
       </c>
       <c r="E16">
-        <v>3.401013851165771</v>
+        <v>3.4427895545959468</v>
       </c>
       <c r="F16">
-        <v>3.4188811779022221</v>
+        <v>3.6203453540802002</v>
       </c>
       <c r="G16">
-        <v>3.271255731582642</v>
+        <v>3.560441255569458</v>
       </c>
       <c r="H16">
-        <v>3.399997234344482</v>
+        <v>3.5714929103851318</v>
       </c>
       <c r="I16">
-        <v>3.4248414039611821</v>
+        <v>3.5135641098022461</v>
       </c>
       <c r="J16">
-        <v>3.2712490558624272</v>
+        <v>3.5574836730957031</v>
       </c>
       <c r="K16">
-        <v>3.393600225448608</v>
+        <v>3.5804464817047119</v>
       </c>
       <c r="L16">
-        <v>3.4149003028869629</v>
+        <v>3.515567302703857</v>
       </c>
       <c r="M16">
-        <v>3.4255154132843022</v>
+        <v>3.5510578155517578</v>
       </c>
       <c r="N16">
-        <v>3.2957017421722412</v>
+        <v>3.571414470672607</v>
       </c>
       <c r="O16">
-        <v>3.410588264465332</v>
+        <v>3.5206115245819092</v>
       </c>
       <c r="P16">
-        <v>3.4304957389831539</v>
+        <v>3.5434892177581792</v>
       </c>
       <c r="Q16">
-        <v>3.2782669067382808</v>
+        <v>3.5864357948303218</v>
       </c>
       <c r="R16">
-        <v>3.3970308303833008</v>
+        <v>3.6686761379241939</v>
       </c>
       <c r="S16">
-        <v>3.418857336044312</v>
+        <v>3.427830696105957</v>
       </c>
       <c r="T16">
-        <v>3.273527860641479</v>
+        <v>3.5594768524169922</v>
       </c>
       <c r="U16">
-        <v>3.4178588390350342</v>
+        <v>3.6837005615234379</v>
       </c>
       <c r="V16">
         <f t="shared" si="0"/>
-        <v>3.3729584932327272</v>
+        <v>3.5641952395439147</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
@@ -2715,68 +2716,68 @@
         <v>190</v>
       </c>
       <c r="B17">
-        <v>3.9969954490661621</v>
+        <v>4.2177464962005624</v>
       </c>
       <c r="C17">
-        <v>4.0033257007598877</v>
+        <v>4.1498942375183114</v>
       </c>
       <c r="D17">
-        <v>4.0239241123199463</v>
+        <v>4.2047560214996338</v>
       </c>
       <c r="E17">
-        <v>3.8838992118835449</v>
+        <v>4.223712682723999</v>
       </c>
       <c r="F17">
-        <v>3.9880118370056148</v>
+        <v>4.3324096202850342</v>
       </c>
       <c r="G17">
-        <v>3.9958024024963379</v>
+        <v>4.0551187992095947</v>
       </c>
       <c r="H17">
-        <v>4.0372035503387451</v>
+        <v>4.2519640922546387</v>
       </c>
       <c r="I17">
-        <v>4.0374608039855957</v>
+        <v>4.2097053527832031</v>
       </c>
       <c r="J17">
-        <v>3.8822662830352779</v>
+        <v>4.2217369079589844</v>
       </c>
       <c r="K17">
-        <v>4.0000338554382324</v>
+        <v>4.3283882141113281</v>
       </c>
       <c r="L17">
-        <v>3.99384617805481</v>
+        <v>4.0781214237213126</v>
       </c>
       <c r="M17">
-        <v>4.0199668407440194</v>
+        <v>4.2546191215515137</v>
       </c>
       <c r="N17">
-        <v>3.879590511322021</v>
+        <v>4.2127294540405273</v>
       </c>
       <c r="O17">
-        <v>3.9884576797485352</v>
+        <v>4.2127373218536377</v>
       </c>
       <c r="P17">
-        <v>3.991557359695435</v>
+        <v>4.1508946418762207</v>
       </c>
       <c r="Q17">
-        <v>4.0010128021240234</v>
+        <v>4.166884183883667</v>
       </c>
       <c r="R17">
-        <v>4.034881591796875</v>
+        <v>4.277712345123291</v>
       </c>
       <c r="S17">
-        <v>3.8743209838867192</v>
+        <v>4.2196776866912842</v>
       </c>
       <c r="T17">
-        <v>3.9823472499847412</v>
+        <v>4.2386610507965088</v>
       </c>
       <c r="U17">
-        <v>4.0159857273101807</v>
+        <v>4.1489002704620361</v>
       </c>
       <c r="V17">
         <f t="shared" si="0"/>
-        <v>3.9815445065498354</v>
+        <v>4.2078184962272642</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
@@ -2784,68 +2785,68 @@
         <v>200</v>
       </c>
       <c r="B18">
-        <v>4.7080814838409424</v>
+        <v>4.8002686500549316</v>
       </c>
       <c r="C18">
-        <v>4.7213730812072754</v>
+        <v>5.0005934238433838</v>
       </c>
       <c r="D18">
-        <v>4.7360126972198486</v>
+        <v>4.9183566570281982</v>
       </c>
       <c r="E18">
-        <v>4.5667531490325928</v>
+        <v>5.001617431640625</v>
       </c>
       <c r="F18">
-        <v>4.6799137592315674</v>
+        <v>4.9188404083251953</v>
       </c>
       <c r="G18">
-        <v>4.6729815006256104</v>
+        <v>5.0514850616455078</v>
       </c>
       <c r="H18">
-        <v>4.6939668655395508</v>
+        <v>4.9497566223144531</v>
       </c>
       <c r="I18">
-        <v>4.7056145668029794</v>
+        <v>4.8919389247894287</v>
       </c>
       <c r="J18">
-        <v>4.7163057327270508</v>
+        <v>4.894904613494873</v>
       </c>
       <c r="K18">
-        <v>4.7208635807037354</v>
+        <v>4.9577112197875977</v>
       </c>
       <c r="L18">
-        <v>4.556358814239502</v>
+        <v>5.0066037178039551</v>
       </c>
       <c r="M18">
-        <v>4.6909735202789307</v>
+        <v>5.0155806541442871</v>
       </c>
       <c r="N18">
-        <v>4.6851551532745361</v>
+        <v>5.0535068511962891</v>
       </c>
       <c r="O18">
-        <v>4.7139146327972412</v>
+        <v>4.9457411766052246</v>
       </c>
       <c r="P18">
-        <v>4.7150793075561523</v>
+        <v>4.9049093723297119</v>
       </c>
       <c r="Q18">
-        <v>4.7103686332702637</v>
+        <v>4.9288866519927979</v>
       </c>
       <c r="R18">
-        <v>4.7219109535217294</v>
+        <v>5.0265872478485107</v>
       </c>
       <c r="S18">
-        <v>4.5664825439453116</v>
+        <v>4.9257872104644784</v>
       </c>
       <c r="T18">
-        <v>4.6680359840393066</v>
+        <v>5.0295755863189697</v>
       </c>
       <c r="U18">
-        <v>4.7072901725769043</v>
+        <v>4.9308068752288818</v>
       </c>
       <c r="V18">
         <f t="shared" si="0"/>
-        <v>4.6828718066215513</v>
+        <v>4.9576729178428653</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
@@ -2853,68 +2854,68 @@
         <v>210</v>
       </c>
       <c r="B19">
-        <v>5.5188839435577393</v>
+        <v>5.8673365116119376</v>
       </c>
       <c r="C19">
-        <v>5.4814603328704834</v>
+        <v>5.766538143157959</v>
       </c>
       <c r="D19">
-        <v>5.4992902278900146</v>
+        <v>5.8972234725952148</v>
       </c>
       <c r="E19">
-        <v>5.4982960224151611</v>
+        <v>5.7954938411712646</v>
       </c>
       <c r="F19">
-        <v>5.7566018104553223</v>
+        <v>5.8733189105987549</v>
       </c>
       <c r="G19">
-        <v>5.5835907459259033</v>
+        <v>5.9071648120880127</v>
       </c>
       <c r="H19">
-        <v>5.5345840454101563</v>
+        <v>5.8154838085174561</v>
       </c>
       <c r="I19">
-        <v>5.5042459964752197</v>
+        <v>5.9340929985046387</v>
       </c>
       <c r="J19">
-        <v>5.5092952251434326</v>
+        <v>5.6169734001159668</v>
       </c>
       <c r="K19">
-        <v>5.5418579578399658</v>
+        <v>5.8423998355865479</v>
       </c>
       <c r="L19">
-        <v>5.5199801921844482</v>
+        <v>5.8398678302764893</v>
       </c>
       <c r="M19">
-        <v>5.5532677173614502</v>
+        <v>5.8383808135986328</v>
       </c>
       <c r="N19">
-        <v>5.5227422714233398</v>
+        <v>5.7795360088348389</v>
       </c>
       <c r="O19">
-        <v>5.5367140769958496</v>
+        <v>5.8548681735992432</v>
       </c>
       <c r="P19">
-        <v>5.549281120300293</v>
+        <v>5.858445405960083</v>
       </c>
       <c r="Q19">
-        <v>5.5721125602722168</v>
+        <v>5.7725832462310791</v>
       </c>
       <c r="R19">
-        <v>5.549668550491333</v>
+        <v>5.9326744079589844</v>
       </c>
       <c r="S19">
-        <v>5.3833208084106454</v>
+        <v>5.7740931510925293</v>
       </c>
       <c r="T19">
-        <v>5.4698927402496338</v>
+        <v>5.861290454864502</v>
       </c>
       <c r="U19">
-        <v>5.5048339366912842</v>
+        <v>5.7825627326965332</v>
       </c>
       <c r="V19">
         <f t="shared" si="0"/>
-        <v>5.5294960141181946</v>
+        <v>5.8305163979530334</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
@@ -2922,68 +2923,68 @@
         <v>220</v>
       </c>
       <c r="B20">
-        <v>6.4208230972290039</v>
+        <v>6.7898328304290771</v>
       </c>
       <c r="C20">
-        <v>6.4073777198791504</v>
+        <v>6.808349609375</v>
       </c>
       <c r="D20">
-        <v>6.4384279251098633</v>
+        <v>6.6916420459747306</v>
       </c>
       <c r="E20">
-        <v>6.3954317569732666</v>
+        <v>6.7864093780517578</v>
       </c>
       <c r="F20">
-        <v>6.4182596206665039</v>
+        <v>6.8247733116149902</v>
       </c>
       <c r="G20">
-        <v>6.3984115123748779</v>
+        <v>6.688612699508667</v>
       </c>
       <c r="H20">
-        <v>6.4216394424438477</v>
+        <v>6.7699012756347656</v>
       </c>
       <c r="I20">
-        <v>6.4414768218994141</v>
+        <v>6.6793496608734131</v>
       </c>
       <c r="J20">
-        <v>6.8484351634979248</v>
+        <v>6.7618765830993652</v>
       </c>
       <c r="K20">
-        <v>6.9693586826324463</v>
+        <v>6.93843674659729</v>
       </c>
       <c r="L20">
-        <v>6.830730676651001</v>
+        <v>6.7480711936950684</v>
       </c>
       <c r="M20">
-        <v>7.0022728443145752</v>
+        <v>6.8507905006408691</v>
       </c>
       <c r="N20">
-        <v>6.8945589065551758</v>
+        <v>6.8417260646820068</v>
       </c>
       <c r="O20">
-        <v>6.908522367477417</v>
+        <v>6.7245020866394043</v>
       </c>
       <c r="P20">
-        <v>6.7449929714202881</v>
+        <v>6.8242661952972412</v>
       </c>
       <c r="Q20">
-        <v>6.4228229522705078</v>
+        <v>6.846712589263916</v>
       </c>
       <c r="R20">
-        <v>6.3779332637786874</v>
+        <v>6.6967360973358154</v>
       </c>
       <c r="S20">
-        <v>6.4068641662597656</v>
+        <v>6.8402471542358398</v>
       </c>
       <c r="T20">
-        <v>6.3799307346343994</v>
+        <v>6.7858138084411621</v>
       </c>
       <c r="U20">
-        <v>6.3856451511383057</v>
+        <v>6.727034330368042</v>
       </c>
       <c r="V20">
         <f t="shared" si="0"/>
-        <v>6.5756957888603207</v>
+        <v>6.7812542080879208</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
@@ -2991,68 +2992,68 @@
         <v>230</v>
       </c>
       <c r="B21">
-        <v>7.3259191513061523</v>
+        <v>7.7469930648803711</v>
       </c>
       <c r="C21">
-        <v>7.3256094455718994</v>
+        <v>7.7896819114685059</v>
       </c>
       <c r="D21">
-        <v>7.3513712882995614</v>
+        <v>7.8619680404663086</v>
       </c>
       <c r="E21">
-        <v>7.3058016300201416</v>
+        <v>7.8081104755401611</v>
       </c>
       <c r="F21">
-        <v>7.327937126159668</v>
+        <v>7.7936713695526123</v>
       </c>
       <c r="G21">
-        <v>7.4930076599121094</v>
+        <v>7.7762258052825928</v>
       </c>
       <c r="H21">
-        <v>7.3480801582336426</v>
+        <v>7.6869308948516846</v>
       </c>
       <c r="I21">
-        <v>7.3528141975402832</v>
+        <v>7.7663407325744629</v>
       </c>
       <c r="J21">
-        <v>7.3295371532440194</v>
+        <v>7.729320764541626</v>
       </c>
       <c r="K21">
-        <v>7.3159470558166504</v>
+        <v>7.9388272762298584</v>
       </c>
       <c r="L21">
-        <v>7.3057346343994141</v>
+        <v>7.7360143661499023</v>
       </c>
       <c r="M21">
-        <v>7.3711824417114258</v>
+        <v>7.8094470500946036</v>
       </c>
       <c r="N21">
-        <v>7.50362229347229</v>
+        <v>7.8101050853729248</v>
       </c>
       <c r="O21">
-        <v>7.4677102565765381</v>
+        <v>7.7612466812133789</v>
       </c>
       <c r="P21">
-        <v>7.3385229110717773</v>
+        <v>7.8220729827880859</v>
       </c>
       <c r="Q21">
-        <v>7.3154585361480713</v>
+        <v>8.1501946449279785</v>
       </c>
       <c r="R21">
-        <v>7.3330726623535156</v>
+        <v>8.0454761981964111</v>
       </c>
       <c r="S21">
-        <v>7.3098435401916504</v>
+        <v>8.014556884765625</v>
       </c>
       <c r="T21">
-        <v>7.3021543025970459</v>
+        <v>7.7552525997161874</v>
       </c>
       <c r="U21">
-        <v>7.288506031036377</v>
+        <v>7.7851710319519043</v>
       </c>
       <c r="V21">
         <f t="shared" si="0"/>
-        <v>7.3505916237831119</v>
+        <v>7.8293803930282593</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -3060,68 +3061,68 @@
         <v>240</v>
       </c>
       <c r="B22">
-        <v>8.5135188102722168</v>
+        <v>8.9011857509613037</v>
       </c>
       <c r="C22">
-        <v>8.4849815368652344</v>
+        <v>9.1227180957794189</v>
       </c>
       <c r="D22">
-        <v>8.4613690376281738</v>
+        <v>8.9308550357818604</v>
       </c>
       <c r="E22">
-        <v>8.67411208152771</v>
+        <v>8.9490253925323486</v>
       </c>
       <c r="F22">
-        <v>8.6320426464080811</v>
+        <v>8.86100172996521</v>
       </c>
       <c r="G22">
-        <v>8.5049974918365479</v>
+        <v>9.1395936012268066</v>
       </c>
       <c r="H22">
-        <v>8.466710090637207</v>
+        <v>8.9759905338287354</v>
       </c>
       <c r="I22">
-        <v>8.661205530166626</v>
+        <v>8.9295904636383057</v>
       </c>
       <c r="J22">
-        <v>8.4939937591552734</v>
+        <v>8.8927321434020996</v>
       </c>
       <c r="K22">
-        <v>8.4867825508117676</v>
+        <v>9.1535093784332275</v>
       </c>
       <c r="L22">
-        <v>8.4697299003601074</v>
+        <v>8.9595537185668945</v>
       </c>
       <c r="M22">
-        <v>8.684159517288208</v>
+        <v>8.8732609748840332</v>
       </c>
       <c r="N22">
-        <v>8.5019752979278564</v>
+        <v>8.9490902423858643</v>
       </c>
       <c r="O22">
-        <v>8.4964675903320313</v>
+        <v>9.1684367656707764</v>
       </c>
       <c r="P22">
-        <v>8.505263090133667</v>
+        <v>9.0164117813110352</v>
       </c>
       <c r="Q22">
-        <v>8.6683046817779541</v>
+        <v>8.9377985000610352</v>
       </c>
       <c r="R22">
-        <v>8.5045614242553711</v>
+        <v>8.9525613784790039</v>
       </c>
       <c r="S22">
-        <v>8.4935257434844971</v>
+        <v>9.1795573234558105</v>
       </c>
       <c r="T22">
-        <v>8.4797160625457764</v>
+        <v>8.8942759037017822</v>
       </c>
       <c r="U22">
-        <v>8.6533079147338867</v>
+        <v>8.942042350769043</v>
       </c>
       <c r="V22">
         <f t="shared" si="0"/>
-        <v>8.5418362379074093</v>
+        <v>8.9864595532417297</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
@@ -3129,68 +3130,68 @@
         <v>250</v>
       </c>
       <c r="B23">
-        <v>9.6591928005218506</v>
+        <v>10.234749794006349</v>
       </c>
       <c r="C23">
-        <v>9.8775265216827393</v>
+        <v>10.11992621421814</v>
       </c>
       <c r="D23">
-        <v>9.6800198554992676</v>
+        <v>10.0740807056427</v>
       </c>
       <c r="E23">
-        <v>9.6586380004882813</v>
+        <v>10.2426815032959</v>
       </c>
       <c r="F23">
-        <v>9.8338553905487061</v>
+        <v>10.105995655059809</v>
       </c>
       <c r="G23">
-        <v>9.7031731605529785</v>
+        <v>10.08003258705139</v>
       </c>
       <c r="H23">
-        <v>9.6516625881195068</v>
+        <v>10.24755167961121</v>
       </c>
       <c r="I23">
-        <v>10.010746717452999</v>
+        <v>10.104996204376221</v>
       </c>
       <c r="J23">
-        <v>9.7540194988250732</v>
+        <v>10.32936429977417</v>
       </c>
       <c r="K23">
-        <v>9.6282558441162109</v>
+        <v>10.275510311126711</v>
       </c>
       <c r="L23">
-        <v>9.8285331726074219</v>
+        <v>10.10493278503418</v>
       </c>
       <c r="M23">
-        <v>9.6736493110656738</v>
+        <v>10.08306002616882</v>
       </c>
       <c r="N23">
-        <v>9.6876106262207031</v>
+        <v>10.23660182952881</v>
       </c>
       <c r="O23">
-        <v>9.8197610378265381</v>
+        <v>10.117905378341669</v>
       </c>
       <c r="P23">
-        <v>9.6571848392486572</v>
+        <v>10.284996271133419</v>
       </c>
       <c r="Q23">
-        <v>9.6135110855102539</v>
+        <v>10.143880844116209</v>
       </c>
       <c r="R23">
-        <v>9.8112819194793701</v>
+        <v>10.11423873901367</v>
       </c>
       <c r="S23">
-        <v>9.6521167755126953</v>
+        <v>10.284487247467039</v>
       </c>
       <c r="T23">
-        <v>9.6428806781768799</v>
+        <v>10.093817472457889</v>
       </c>
       <c r="U23">
-        <v>9.8094487190246582</v>
+        <v>10.09203267097473</v>
       </c>
       <c r="V23">
         <f t="shared" si="0"/>
-        <v>9.7326534271240241</v>
+        <v>10.168542110919953</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
@@ -3198,68 +3199,68 @@
         <v>260</v>
       </c>
       <c r="B24">
-        <v>11.09259700775146</v>
+        <v>11.593424797058111</v>
       </c>
       <c r="C24">
-        <v>10.93839430809021</v>
+        <v>11.80140662193298</v>
       </c>
       <c r="D24">
-        <v>10.876714468002319</v>
+        <v>11.555114984512331</v>
       </c>
       <c r="E24">
-        <v>11.02033042907715</v>
+        <v>11.55471539497375</v>
       </c>
       <c r="F24">
-        <v>10.90164422988892</v>
+        <v>11.73614025115967</v>
       </c>
       <c r="G24">
-        <v>11.057503223419189</v>
+        <v>11.606459379196171</v>
       </c>
       <c r="H24">
-        <v>10.917140007019039</v>
+        <v>11.787387371063231</v>
       </c>
       <c r="I24">
-        <v>11.082398891448969</v>
+        <v>11.709115028381349</v>
       </c>
       <c r="J24">
-        <v>10.91003322601318</v>
+        <v>11.75442004203796</v>
       </c>
       <c r="K24">
-        <v>11.07314443588257</v>
+        <v>11.60461640357971</v>
       </c>
       <c r="L24">
-        <v>10.8919050693512</v>
+        <v>11.734636306762701</v>
       </c>
       <c r="M24">
-        <v>11.080501556396481</v>
+        <v>11.57603216171265</v>
       </c>
       <c r="N24">
-        <v>10.893388271331791</v>
+        <v>11.807928323745729</v>
       </c>
       <c r="O24">
-        <v>10.877457141876221</v>
+        <v>11.646370887756349</v>
       </c>
       <c r="P24">
-        <v>11.038458108901979</v>
+        <v>11.62290406227112</v>
       </c>
       <c r="Q24">
-        <v>10.88057112693787</v>
+        <v>11.784471273422239</v>
       </c>
       <c r="R24">
-        <v>11.05743145942688</v>
+        <v>11.852802515029911</v>
       </c>
       <c r="S24">
-        <v>11.050124406814581</v>
+        <v>11.78347563743591</v>
       </c>
       <c r="T24">
-        <v>11.061011552810671</v>
+        <v>11.580583572387701</v>
       </c>
       <c r="U24">
-        <v>10.921679735183719</v>
+        <v>11.7984344959259</v>
       </c>
       <c r="V24">
         <f t="shared" si="0"/>
-        <v>10.981121432781219</v>
+        <v>11.694521975517272</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
@@ -3267,68 +3268,68 @@
         <v>270</v>
       </c>
       <c r="B25">
-        <v>12.39192318916321</v>
+        <v>13.145380735397341</v>
       </c>
       <c r="C25">
-        <v>12.60360670089722</v>
+        <v>12.919467926025391</v>
       </c>
       <c r="D25">
-        <v>12.427238464355471</v>
+        <v>13.16290283203125</v>
       </c>
       <c r="E25">
-        <v>12.57927536964417</v>
+        <v>12.872084379196171</v>
       </c>
       <c r="F25">
-        <v>12.422471284866329</v>
+        <v>13.025843143463129</v>
       </c>
       <c r="G25">
-        <v>12.5554530620575</v>
+        <v>12.92864155769348</v>
       </c>
       <c r="H25">
-        <v>12.63021659851074</v>
+        <v>13.161361217498779</v>
       </c>
       <c r="I25">
-        <v>12.44360971450806</v>
+        <v>13.15448689460754</v>
       </c>
       <c r="J25">
-        <v>12.62163639068604</v>
+        <v>12.924929618835449</v>
       </c>
       <c r="K25">
-        <v>12.395528793334959</v>
+        <v>13.11686205863953</v>
       </c>
       <c r="L25">
-        <v>12.573613405227659</v>
+        <v>12.95630574226379</v>
       </c>
       <c r="M25">
-        <v>12.418179035186769</v>
+        <v>13.14084219932556</v>
       </c>
       <c r="N25">
-        <v>12.60680484771729</v>
+        <v>12.90549993515015</v>
       </c>
       <c r="O25">
-        <v>12.616080760955811</v>
+        <v>13.0267927646637</v>
       </c>
       <c r="P25">
-        <v>12.42459011077881</v>
+        <v>13.18073511123657</v>
       </c>
       <c r="Q25">
-        <v>12.596898078918461</v>
+        <v>12.916444301605219</v>
       </c>
       <c r="R25">
-        <v>12.40603137016296</v>
+        <v>13.06365132331848</v>
       </c>
       <c r="S25">
-        <v>12.560437440872191</v>
+        <v>12.89350533485413</v>
       </c>
       <c r="T25">
-        <v>12.40400195121765</v>
+        <v>13.028667211532589</v>
       </c>
       <c r="U25">
-        <v>12.5377311706543</v>
+        <v>12.996229410171511</v>
       </c>
       <c r="V25">
         <f t="shared" si="0"/>
-        <v>12.510766386985779</v>
+        <v>13.026031684875488</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
@@ -3336,68 +3337,68 @@
         <v>280</v>
       </c>
       <c r="B26">
-        <v>14.265557527542111</v>
+        <v>15.008501768112181</v>
       </c>
       <c r="C26">
-        <v>14.580452919006349</v>
+        <v>14.708194971084589</v>
       </c>
       <c r="D26">
-        <v>14.101457834243771</v>
+        <v>14.780946016311651</v>
       </c>
       <c r="E26">
-        <v>14.25813460350037</v>
+        <v>14.799525260925289</v>
       </c>
       <c r="F26">
-        <v>14.319626331329349</v>
+        <v>14.684844255447389</v>
       </c>
       <c r="G26">
-        <v>14.339361429214479</v>
+        <v>14.809379100799561</v>
       </c>
       <c r="H26">
-        <v>14.12496852874756</v>
+        <v>14.8866024017334</v>
       </c>
       <c r="I26">
-        <v>14.297036170959471</v>
+        <v>14.661773920059201</v>
       </c>
       <c r="J26">
-        <v>14.328086376190191</v>
+        <v>14.741249561309809</v>
       </c>
       <c r="K26">
-        <v>14.132321834564211</v>
+        <v>14.913068532943729</v>
       </c>
       <c r="L26">
-        <v>14.340783357620239</v>
+        <v>14.69224953651428</v>
       </c>
       <c r="M26">
-        <v>14.373677253723139</v>
+        <v>14.80947470664978</v>
       </c>
       <c r="N26">
-        <v>14.13117957115173</v>
+        <v>14.77412128448486</v>
       </c>
       <c r="O26">
-        <v>14.333661794662479</v>
+        <v>14.91609311103821</v>
       </c>
       <c r="P26">
-        <v>14.34373307228088</v>
+        <v>14.632852554321291</v>
       </c>
       <c r="Q26">
-        <v>14.153229475021361</v>
+        <v>14.866941452026371</v>
       </c>
       <c r="R26">
-        <v>14.277813673019409</v>
+        <v>14.99984240531921</v>
       </c>
       <c r="S26">
-        <v>14.363098382949831</v>
+        <v>14.645526170730591</v>
       </c>
       <c r="T26">
-        <v>14.118269920349119</v>
+        <v>14.7561149597168</v>
       </c>
       <c r="U26">
-        <v>14.298380851745611</v>
+        <v>14.92091012001038</v>
       </c>
       <c r="V26">
         <f t="shared" si="0"/>
-        <v>14.274041545391082</v>
+        <v>14.800410604476928</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
@@ -3405,68 +3406,68 @@
         <v>290</v>
       </c>
       <c r="B27">
-        <v>15.83990836143494</v>
+        <v>16.633555173873901</v>
       </c>
       <c r="C27">
-        <v>15.975001811981199</v>
+        <v>16.502373218536381</v>
       </c>
       <c r="D27">
-        <v>16.176701784133911</v>
+        <v>16.230134248733521</v>
       </c>
       <c r="E27">
-        <v>16.011793613433841</v>
+        <v>16.34735107421875</v>
       </c>
       <c r="F27">
-        <v>16.005160093307499</v>
+        <v>16.473124742507931</v>
       </c>
       <c r="G27">
-        <v>15.82088041305542</v>
+        <v>16.387334108352661</v>
       </c>
       <c r="H27">
-        <v>15.914018630981451</v>
+        <v>16.442008018493649</v>
       </c>
       <c r="I27">
-        <v>15.952562093734739</v>
+        <v>16.22110223770142</v>
       </c>
       <c r="J27">
-        <v>15.98892116546631</v>
+        <v>16.350286483764648</v>
       </c>
       <c r="K27">
-        <v>16.074450731277469</v>
+        <v>16.406229496002201</v>
       </c>
       <c r="L27">
-        <v>16.069516897201542</v>
+        <v>16.397161245346069</v>
       </c>
       <c r="M27">
-        <v>15.857142925262449</v>
+        <v>16.5447678565979</v>
       </c>
       <c r="N27">
-        <v>16.046368837356571</v>
+        <v>16.42215800285339</v>
       </c>
       <c r="O27">
-        <v>16.000758171081539</v>
+        <v>16.27426719665527</v>
       </c>
       <c r="P27">
-        <v>16.029062032699581</v>
+        <v>16.327448844909672</v>
       </c>
       <c r="Q27">
-        <v>16.04473614692688</v>
+        <v>16.47047853469849</v>
       </c>
       <c r="R27">
-        <v>15.815303087234501</v>
+        <v>16.396672487258911</v>
       </c>
       <c r="S27">
-        <v>15.98496890068054</v>
+        <v>16.549696207046509</v>
       </c>
       <c r="T27">
-        <v>15.96640777587891</v>
+        <v>16.26171708106995</v>
       </c>
       <c r="U27">
-        <v>16.000180006027222</v>
+        <v>16.557687759399411</v>
       </c>
       <c r="V27">
         <f t="shared" si="0"/>
-        <v>15.978692173957825</v>
+        <v>16.409777700901031</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
@@ -3474,68 +3475,68 @@
         <v>300</v>
       </c>
       <c r="B28">
-        <v>17.735504150390621</v>
+        <v>18.461157560348511</v>
       </c>
       <c r="C28">
-        <v>17.973474979400631</v>
+        <v>18.48204517364502</v>
       </c>
       <c r="D28">
-        <v>17.72579383850098</v>
+        <v>18.392791032791141</v>
       </c>
       <c r="E28">
-        <v>17.786233901977539</v>
+        <v>18.197316408157349</v>
       </c>
       <c r="F28">
-        <v>17.743018627166752</v>
+        <v>18.296205997467041</v>
       </c>
       <c r="G28">
-        <v>17.763124465942379</v>
+        <v>18.44450926780701</v>
       </c>
       <c r="H28">
-        <v>17.777940988540649</v>
+        <v>18.31013202667236</v>
       </c>
       <c r="I28">
-        <v>17.823491811752319</v>
+        <v>18.41074442863464</v>
       </c>
       <c r="J28">
-        <v>17.7907440662384</v>
+        <v>18.442220449447628</v>
       </c>
       <c r="K28">
-        <v>17.787257194519039</v>
+        <v>18.429702997207642</v>
       </c>
       <c r="L28">
-        <v>17.832516670227051</v>
+        <v>18.285279035568241</v>
       </c>
       <c r="M28">
-        <v>17.537662029266361</v>
+        <v>18.465110540390011</v>
       </c>
       <c r="N28">
-        <v>17.634373426437381</v>
+        <v>18.46514010429382</v>
       </c>
       <c r="O28">
-        <v>17.694509506225589</v>
+        <v>18.493521928787231</v>
       </c>
       <c r="P28">
-        <v>17.6724853515625</v>
+        <v>18.393769025802609</v>
       </c>
       <c r="Q28">
-        <v>17.771593332290649</v>
+        <v>18.516065359115601</v>
       </c>
       <c r="R28">
-        <v>17.658475875854489</v>
+        <v>18.686109781265259</v>
       </c>
       <c r="S28">
-        <v>17.797283411026001</v>
+        <v>18.51098537445068</v>
       </c>
       <c r="T28">
-        <v>17.92731499671936</v>
+        <v>18.392321825027469</v>
       </c>
       <c r="U28">
-        <v>17.842248439788818</v>
+        <v>18.204296827316281</v>
       </c>
       <c r="V28">
         <f t="shared" si="0"/>
-        <v>17.763752353191375</v>
+        <v>18.413971257209777</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
@@ -3543,68 +3544,68 @@
         <v>310</v>
       </c>
       <c r="B29">
-        <v>19.317943096160889</v>
+        <v>20.415088176727291</v>
       </c>
       <c r="C29">
-        <v>19.58734822273254</v>
+        <v>20.427380323410031</v>
       </c>
       <c r="D29">
-        <v>19.405968189239498</v>
+        <v>20.43737435340881</v>
       </c>
       <c r="E29">
-        <v>19.48401951789856</v>
+        <v>20.48276519775391</v>
       </c>
       <c r="F29">
-        <v>19.44617772102356</v>
+        <v>20.374825477600101</v>
       </c>
       <c r="G29">
-        <v>19.4711639881134</v>
+        <v>20.422362089157101</v>
       </c>
       <c r="H29">
-        <v>19.428919792175289</v>
+        <v>20.43233489990234</v>
       </c>
       <c r="I29">
-        <v>19.4275176525116</v>
+        <v>20.64031553268433</v>
       </c>
       <c r="J29">
-        <v>19.35946702957153</v>
+        <v>20.52175140380859</v>
       </c>
       <c r="K29">
-        <v>19.357615232467651</v>
+        <v>20.501738548278809</v>
       </c>
       <c r="L29">
-        <v>19.318813323974609</v>
+        <v>20.490823745727539</v>
       </c>
       <c r="M29">
-        <v>19.339378118515011</v>
+        <v>20.70792984962463</v>
       </c>
       <c r="N29">
-        <v>19.309869050979611</v>
+        <v>20.491873979568481</v>
       </c>
       <c r="O29">
-        <v>19.28918027877808</v>
+        <v>20.454788684844971</v>
       </c>
       <c r="P29">
-        <v>19.528801202774051</v>
+        <v>20.41042065620422</v>
       </c>
       <c r="Q29">
-        <v>21.137443780899051</v>
+        <v>20.495177507400509</v>
       </c>
       <c r="R29">
-        <v>19.171243667602539</v>
+        <v>20.44513463973999</v>
       </c>
       <c r="S29">
-        <v>19.553147554397579</v>
+        <v>20.416408538818359</v>
       </c>
       <c r="T29">
-        <v>19.4127516746521</v>
+        <v>20.43285155296326</v>
       </c>
       <c r="U29">
-        <v>19.452405214309689</v>
+        <v>20.427832126617432</v>
       </c>
       <c r="V29">
         <f t="shared" si="0"/>
-        <v>19.489958715438842</v>
+        <v>20.471458864212035</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
@@ -3612,68 +3613,68 @@
         <v>320</v>
       </c>
       <c r="B30">
-        <v>21.871289730072021</v>
+        <v>22.672371625900269</v>
       </c>
       <c r="C30">
-        <v>22.218569993972778</v>
+        <v>22.778565883636471</v>
       </c>
       <c r="D30">
-        <v>22.08161544799805</v>
+        <v>23.024942398071289</v>
       </c>
       <c r="E30">
-        <v>21.995114088058472</v>
+        <v>22.802719593048099</v>
       </c>
       <c r="F30">
-        <v>21.931838274002079</v>
+        <v>22.75580620765686</v>
       </c>
       <c r="G30">
-        <v>21.878011465072628</v>
+        <v>22.920677423477169</v>
       </c>
       <c r="H30">
-        <v>22.14918851852417</v>
+        <v>22.845208168029789</v>
       </c>
       <c r="I30">
-        <v>22.022181510925289</v>
+        <v>23.109173774719238</v>
       </c>
       <c r="J30">
-        <v>21.974070072174069</v>
+        <v>22.856897592544559</v>
       </c>
       <c r="K30">
-        <v>22.1917450428009</v>
+        <v>22.819950103759769</v>
       </c>
       <c r="L30">
-        <v>21.88802790641785</v>
+        <v>22.68381500244141</v>
       </c>
       <c r="M30">
-        <v>22.225629806518551</v>
+        <v>22.783563613891602</v>
       </c>
       <c r="N30">
-        <v>22.03528189659119</v>
+        <v>22.97003436088562</v>
       </c>
       <c r="O30">
-        <v>21.9676833152771</v>
+        <v>22.906714916229252</v>
       </c>
       <c r="P30">
-        <v>21.900851726531979</v>
+        <v>22.725217819213871</v>
       </c>
       <c r="Q30">
-        <v>21.90263724327087</v>
+        <v>22.732287645339969</v>
       </c>
       <c r="R30">
-        <v>22.21601510047913</v>
+        <v>22.877790927886959</v>
       </c>
       <c r="S30">
-        <v>21.995289087295529</v>
+        <v>23.073820114135739</v>
       </c>
       <c r="T30">
-        <v>21.926238059997559</v>
+        <v>22.920320272445679</v>
       </c>
       <c r="U30">
-        <v>21.947093725204471</v>
+        <v>23.073266506195068</v>
       </c>
       <c r="V30">
         <f t="shared" si="0"/>
-        <v>22.015918600559235</v>
+        <v>22.866657197475433</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
@@ -3681,68 +3682,68 @@
         <v>330</v>
       </c>
       <c r="B31">
-        <v>24.057024002075199</v>
+        <v>25.306032419204708</v>
       </c>
       <c r="C31">
-        <v>24.007960557937619</v>
+        <v>25.182772397994999</v>
       </c>
       <c r="D31">
-        <v>24.423511981964111</v>
+        <v>25.002238988876339</v>
       </c>
       <c r="E31">
-        <v>24.12752103805542</v>
+        <v>25.395647287368771</v>
       </c>
       <c r="F31">
-        <v>24.47697997093201</v>
+        <v>25.108877658843991</v>
       </c>
       <c r="G31">
-        <v>24.112385034561161</v>
+        <v>25.04958081245422</v>
       </c>
       <c r="H31">
-        <v>24.017654418945309</v>
+        <v>25.43906307220459</v>
       </c>
       <c r="I31">
-        <v>24.325026035308841</v>
+        <v>25.163795948028561</v>
       </c>
       <c r="J31">
-        <v>24.1017472743988</v>
+        <v>24.975180387496948</v>
       </c>
       <c r="K31">
-        <v>24.037775754928589</v>
+        <v>25.36912894248962</v>
       </c>
       <c r="L31">
-        <v>24.31352710723877</v>
+        <v>25.04725360870361</v>
       </c>
       <c r="M31">
-        <v>24.090836763381962</v>
+        <v>25.358649253845211</v>
       </c>
       <c r="N31">
-        <v>24.006833076477051</v>
+        <v>25.651043891906738</v>
       </c>
       <c r="O31">
-        <v>24.336327791213989</v>
+        <v>25.118492364883419</v>
       </c>
       <c r="P31">
-        <v>24.104417324066159</v>
+        <v>25.141458988189701</v>
       </c>
       <c r="Q31">
-        <v>24.26231670379639</v>
+        <v>25.28256177902222</v>
       </c>
       <c r="R31">
-        <v>24.267130136489872</v>
+        <v>25.168365478515621</v>
       </c>
       <c r="S31">
-        <v>24.1002631187439</v>
+        <v>25.37406063079834</v>
       </c>
       <c r="T31">
-        <v>24.052805423736569</v>
+        <v>25.19854307174683</v>
       </c>
       <c r="U31">
-        <v>24.29192423820496</v>
+        <v>25.270005464553829</v>
       </c>
       <c r="V31">
         <f t="shared" si="0"/>
-        <v>24.175698387622834</v>
+        <v>25.230137622356416</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
@@ -3750,68 +3751,68 @@
         <v>340</v>
       </c>
       <c r="B32">
-        <v>26.16312742233276</v>
+        <v>27.496846914291378</v>
       </c>
       <c r="C32">
-        <v>26.40809535980225</v>
+        <v>27.795772552490231</v>
       </c>
       <c r="D32">
-        <v>26.157248973846439</v>
+        <v>27.534302949905399</v>
       </c>
       <c r="E32">
-        <v>26.331607341766361</v>
+        <v>28.004120826721191</v>
       </c>
       <c r="F32">
-        <v>26.228841304779049</v>
+        <v>27.573896408081051</v>
       </c>
       <c r="G32">
-        <v>26.511592149734501</v>
+        <v>27.91830682754517</v>
       </c>
       <c r="H32">
-        <v>26.190111875534061</v>
+        <v>27.440133094787601</v>
       </c>
       <c r="I32">
-        <v>26.680652141571041</v>
+        <v>27.863309144973751</v>
       </c>
       <c r="J32">
-        <v>26.166755437850949</v>
+        <v>27.48906421661377</v>
       </c>
       <c r="K32">
-        <v>26.414307355880741</v>
+        <v>27.852227210998539</v>
       </c>
       <c r="L32">
-        <v>26.19590258598328</v>
+        <v>27.661128759384159</v>
       </c>
       <c r="M32">
-        <v>26.436195611953739</v>
+        <v>27.821540832519531</v>
       </c>
       <c r="N32">
-        <v>26.21041202545166</v>
+        <v>27.673650503158569</v>
       </c>
       <c r="O32">
-        <v>26.443633079528809</v>
+        <v>28.01722884178162</v>
       </c>
       <c r="P32">
-        <v>26.249659061431881</v>
+        <v>27.74612212181091</v>
       </c>
       <c r="Q32">
-        <v>26.47423529624939</v>
+        <v>27.90705943107605</v>
       </c>
       <c r="R32">
-        <v>26.245373249053959</v>
+        <v>27.71872353553772</v>
       </c>
       <c r="S32">
-        <v>26.464192390441891</v>
+        <v>27.857019186019901</v>
       </c>
       <c r="T32">
-        <v>26.297241926193241</v>
+        <v>27.762261390686039</v>
       </c>
       <c r="U32">
-        <v>26.661934375762939</v>
+        <v>28.01408314704895</v>
       </c>
       <c r="V32">
         <f t="shared" si="0"/>
-        <v>26.346555948257446</v>
+        <v>27.757339894771576</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
@@ -3819,68 +3820,68 @@
         <v>350</v>
       </c>
       <c r="B33">
-        <v>29.021179676055912</v>
+        <v>29.613800764083859</v>
       </c>
       <c r="C33">
-        <v>28.707900524139401</v>
+        <v>29.962865591049191</v>
       </c>
       <c r="D33">
-        <v>29.030533790588379</v>
+        <v>30.045307874679569</v>
       </c>
       <c r="E33">
-        <v>28.724511861801151</v>
+        <v>29.772877931594849</v>
       </c>
       <c r="F33">
-        <v>28.98415923118591</v>
+        <v>29.872128486633301</v>
       </c>
       <c r="G33">
-        <v>29.054121494293209</v>
+        <v>30.27104568481445</v>
       </c>
       <c r="H33">
-        <v>28.69223952293396</v>
+        <v>29.78782320022583</v>
       </c>
       <c r="I33">
-        <v>28.989277124404911</v>
+        <v>29.917512178421021</v>
       </c>
       <c r="J33">
-        <v>28.98236966133118</v>
+        <v>30.806134939193729</v>
       </c>
       <c r="K33">
-        <v>28.98540282249451</v>
+        <v>29.79013633728027</v>
       </c>
       <c r="L33">
-        <v>28.879510879516602</v>
+        <v>29.955824136734009</v>
       </c>
       <c r="M33">
-        <v>29.01717305183411</v>
+        <v>30.171973943710331</v>
       </c>
       <c r="N33">
-        <v>28.673381090164181</v>
+        <v>29.80945348739624</v>
       </c>
       <c r="O33">
-        <v>28.98300409317017</v>
+        <v>30.059068202972409</v>
       </c>
       <c r="P33">
-        <v>28.651178598403931</v>
+        <v>29.74818229675293</v>
       </c>
       <c r="Q33">
-        <v>28.878414154052731</v>
+        <v>30.393341064453121</v>
       </c>
       <c r="R33">
-        <v>28.989078760147091</v>
+        <v>30.070883512496948</v>
       </c>
       <c r="S33">
-        <v>28.657878875732418</v>
+        <v>29.8092474937439</v>
       </c>
       <c r="T33">
-        <v>28.846987009048458</v>
+        <v>30.076532125473019</v>
       </c>
       <c r="U33">
-        <v>29.065394639968869</v>
+        <v>30.180136680603031</v>
       </c>
       <c r="V33">
         <f t="shared" si="0"/>
-        <v>28.890684843063354</v>
+        <v>30.005713796615602</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
@@ -3888,68 +3889,68 @@
         <v>360</v>
       </c>
       <c r="B34">
-        <v>32.123821020126343</v>
+        <v>33.374666690826423</v>
       </c>
       <c r="C34">
-        <v>31.372578382492069</v>
+        <v>32.961536169052117</v>
       </c>
       <c r="D34">
-        <v>31.546799898147579</v>
+        <v>33.163091421127319</v>
       </c>
       <c r="E34">
-        <v>31.618399620056149</v>
+        <v>33.203249216079712</v>
       </c>
       <c r="F34">
-        <v>31.6902916431427</v>
+        <v>33.370720863342292</v>
       </c>
       <c r="G34">
-        <v>31.38742303848267</v>
+        <v>33.473925352096558</v>
       </c>
       <c r="H34">
-        <v>31.538978338241581</v>
+        <v>33.053588390350342</v>
       </c>
       <c r="I34">
-        <v>31.573606252670292</v>
+        <v>33.24323296546936</v>
       </c>
       <c r="J34">
-        <v>31.769367456436161</v>
+        <v>33.319671630859382</v>
       </c>
       <c r="K34">
-        <v>31.927947282791141</v>
+        <v>33.448261499404907</v>
       </c>
       <c r="L34">
-        <v>31.40058350563049</v>
+        <v>33.240940809249878</v>
       </c>
       <c r="M34">
-        <v>31.563560962676998</v>
+        <v>33.188667058944702</v>
       </c>
       <c r="N34">
-        <v>31.63126444816589</v>
+        <v>33.20891261100769</v>
       </c>
       <c r="O34">
-        <v>32.051585674285889</v>
+        <v>33.498237133026123</v>
       </c>
       <c r="P34">
-        <v>31.905626535415649</v>
+        <v>33.614258050918579</v>
       </c>
       <c r="Q34">
-        <v>31.391955614089969</v>
+        <v>33.02550482749939</v>
       </c>
       <c r="R34">
-        <v>31.541694641113281</v>
+        <v>33.394350051879883</v>
       </c>
       <c r="S34">
-        <v>31.655948877334591</v>
+        <v>33.325424909591668</v>
       </c>
       <c r="T34">
-        <v>31.709223508834839</v>
+        <v>33.343914031982422</v>
       </c>
       <c r="U34">
-        <v>32.158226728439331</v>
+        <v>33.4228196144104</v>
       </c>
       <c r="V34">
         <f t="shared" si="0"/>
-        <v>31.677944171428681</v>
+        <v>33.293748664855954</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
@@ -3957,68 +3958,68 @@
         <v>370</v>
       </c>
       <c r="B35">
-        <v>34.7089684009552</v>
+        <v>36.039529323577881</v>
       </c>
       <c r="C35">
-        <v>36.919960737228386</v>
+        <v>35.618732452392578</v>
       </c>
       <c r="D35">
-        <v>35.655633926391602</v>
+        <v>35.691398859024048</v>
       </c>
       <c r="E35">
-        <v>34.537475109100342</v>
+        <v>36.151958703994751</v>
       </c>
       <c r="F35">
-        <v>34.5880286693573</v>
+        <v>35.691511392593377</v>
       </c>
       <c r="G35">
-        <v>34.517483711242683</v>
+        <v>35.980292081832893</v>
       </c>
       <c r="H35">
-        <v>34.597348213195801</v>
+        <v>35.775010347366333</v>
       </c>
       <c r="I35">
-        <v>34.77278733253479</v>
+        <v>35.938404083251953</v>
       </c>
       <c r="J35">
-        <v>34.834140777587891</v>
+        <v>35.976747035980218</v>
       </c>
       <c r="K35">
-        <v>34.625041484832757</v>
+        <v>35.888134479522712</v>
       </c>
       <c r="L35">
-        <v>34.574252843856812</v>
+        <v>36.049217939376831</v>
       </c>
       <c r="M35">
-        <v>34.690960884094238</v>
+        <v>36.270641326904297</v>
       </c>
       <c r="N35">
-        <v>34.668675661087043</v>
+        <v>36.041363477706909</v>
       </c>
       <c r="O35">
-        <v>34.668868541717529</v>
+        <v>36.157970666885383</v>
       </c>
       <c r="P35">
-        <v>34.685113191604607</v>
+        <v>35.966741561889648</v>
       </c>
       <c r="Q35">
-        <v>34.706094264984131</v>
+        <v>36.195213317871087</v>
       </c>
       <c r="R35">
-        <v>34.691965341567993</v>
+        <v>36.097430467605591</v>
       </c>
       <c r="S35">
-        <v>34.995351552963257</v>
+        <v>36.313302040100098</v>
       </c>
       <c r="T35">
-        <v>34.74444055557251</v>
+        <v>35.9847412109375</v>
       </c>
       <c r="U35">
-        <v>34.767597913742073</v>
+        <v>36.202550172805793</v>
       </c>
       <c r="V35">
         <f t="shared" si="0"/>
-        <v>34.84750945568085</v>
+        <v>36.001544547080996</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
@@ -4026,68 +4027,68 @@
         <v>380</v>
       </c>
       <c r="B36">
-        <v>37.565945148468018</v>
+        <v>39.362519264221191</v>
       </c>
       <c r="C36">
-        <v>37.487617015838623</v>
+        <v>39.274449110031128</v>
       </c>
       <c r="D36">
-        <v>37.441173553466797</v>
+        <v>39.193215608596802</v>
       </c>
       <c r="E36">
-        <v>37.469687461853027</v>
+        <v>39.171791076660163</v>
       </c>
       <c r="F36">
-        <v>37.411886692047119</v>
+        <v>39.057126760482788</v>
       </c>
       <c r="G36">
-        <v>37.591025114059448</v>
+        <v>39.154469728469849</v>
       </c>
       <c r="H36">
-        <v>37.283061981201172</v>
+        <v>39.068265199661248</v>
       </c>
       <c r="I36">
-        <v>37.885122776031487</v>
+        <v>39.059045553207397</v>
       </c>
       <c r="J36">
-        <v>38.11764669418335</v>
+        <v>39.682156324386597</v>
       </c>
       <c r="K36">
-        <v>37.609856128692627</v>
+        <v>39.515268087387078</v>
       </c>
       <c r="L36">
-        <v>37.530129194259636</v>
+        <v>39.274936199188232</v>
       </c>
       <c r="M36">
-        <v>37.501730442047119</v>
+        <v>39.219677925109863</v>
       </c>
       <c r="N36">
-        <v>37.556738138198853</v>
+        <v>39.29162335395813</v>
       </c>
       <c r="O36">
-        <v>37.852257966995239</v>
+        <v>39.191662549972527</v>
       </c>
       <c r="P36">
-        <v>37.375011920928962</v>
+        <v>39.196877956390381</v>
       </c>
       <c r="Q36">
-        <v>37.391707420349121</v>
+        <v>39.221325397491462</v>
       </c>
       <c r="R36">
-        <v>37.381484985351563</v>
+        <v>39.301920413970947</v>
       </c>
       <c r="S36">
-        <v>37.776469230651863</v>
+        <v>39.072027444839478</v>
       </c>
       <c r="T36">
-        <v>37.65362811088562</v>
+        <v>39.495975494384773</v>
       </c>
       <c r="U36">
-        <v>37.635876893997192</v>
+        <v>39.332332849502563</v>
       </c>
       <c r="V36">
         <f t="shared" si="0"/>
-        <v>37.57590284347534</v>
+        <v>39.25683331489563</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
@@ -4095,68 +4096,68 @@
         <v>390</v>
       </c>
       <c r="B37">
-        <v>40.632617950439453</v>
+        <v>42.893753290176392</v>
       </c>
       <c r="C37">
-        <v>40.711872577667243</v>
+        <v>42.360896587371833</v>
       </c>
       <c r="D37">
-        <v>40.919196128845208</v>
+        <v>42.585796594619751</v>
       </c>
       <c r="E37">
-        <v>40.683893918991089</v>
+        <v>42.965458393096917</v>
       </c>
       <c r="F37">
-        <v>40.634627103805542</v>
+        <v>42.384608745574951</v>
       </c>
       <c r="G37">
-        <v>40.62635350227356</v>
+        <v>42.340470790863037</v>
       </c>
       <c r="H37">
-        <v>40.817863464355469</v>
+        <v>42.712431192398071</v>
       </c>
       <c r="I37">
-        <v>40.733228445053101</v>
+        <v>42.564799547195427</v>
       </c>
       <c r="J37">
-        <v>40.604341268539429</v>
+        <v>42.384160041809082</v>
       </c>
       <c r="K37">
-        <v>40.700648069381707</v>
+        <v>42.378086805343628</v>
       </c>
       <c r="L37">
-        <v>40.930092811584473</v>
+        <v>42.972998142242432</v>
       </c>
       <c r="M37">
-        <v>40.729284286499023</v>
+        <v>42.55054497718811</v>
       </c>
       <c r="N37">
-        <v>40.605167865753167</v>
+        <v>42.418323278427117</v>
       </c>
       <c r="O37">
-        <v>40.587554454803467</v>
+        <v>42.453577995300293</v>
       </c>
       <c r="P37">
-        <v>40.932229280471802</v>
+        <v>42.936142683029168</v>
       </c>
       <c r="Q37">
-        <v>40.658665895462043</v>
+        <v>42.464046478271477</v>
       </c>
       <c r="R37">
-        <v>40.907921075820923</v>
+        <v>42.458667516708367</v>
       </c>
       <c r="S37">
-        <v>40.62239408493042</v>
+        <v>42.489951133728027</v>
       </c>
       <c r="T37">
-        <v>41.071205139160163</v>
+        <v>42.939831972122192</v>
       </c>
       <c r="U37">
-        <v>40.678271055221558</v>
+        <v>42.594450712203979</v>
       </c>
       <c r="V37">
         <f t="shared" si="0"/>
-        <v>40.739371418952942</v>
+        <v>42.592449843883514</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -4164,68 +4165,68 @@
         <v>400</v>
       </c>
       <c r="B38">
-        <v>43.991328239440918</v>
+        <v>46.108642578125</v>
       </c>
       <c r="C38">
-        <v>44.219068765640259</v>
+        <v>46.395871162414551</v>
       </c>
       <c r="D38">
-        <v>44.021065235137939</v>
+        <v>46.197954893112183</v>
       </c>
       <c r="E38">
-        <v>44.574048519134521</v>
+        <v>46.03481125831604</v>
       </c>
       <c r="F38">
-        <v>44.044327020645142</v>
+        <v>46.614966869354248</v>
       </c>
       <c r="G38">
-        <v>44.323902368545532</v>
+        <v>46.320075273513787</v>
       </c>
       <c r="H38">
-        <v>44.127470731735229</v>
+        <v>46.627078533172607</v>
       </c>
       <c r="I38">
-        <v>44.028079748153687</v>
+        <v>46.200630664825439</v>
       </c>
       <c r="J38">
-        <v>44.521805047988892</v>
+        <v>45.853388786315918</v>
       </c>
       <c r="K38">
-        <v>44.01745867729187</v>
+        <v>46.28023099899292</v>
       </c>
       <c r="L38">
-        <v>44.607664108276367</v>
+        <v>46.056897878646851</v>
       </c>
       <c r="M38">
-        <v>44.106824159622192</v>
+        <v>46.643890380859382</v>
       </c>
       <c r="N38">
-        <v>44.009797096252441</v>
+        <v>46.211366176605218</v>
       </c>
       <c r="O38">
-        <v>44.360058069229133</v>
+        <v>46.54905891418457</v>
       </c>
       <c r="P38">
-        <v>44.013899326324463</v>
+        <v>46.288685083389282</v>
       </c>
       <c r="Q38">
-        <v>44.356242179870613</v>
+        <v>45.995979309082031</v>
       </c>
       <c r="R38">
-        <v>44.103448629379272</v>
+        <v>46.45763373374939</v>
       </c>
       <c r="S38">
-        <v>44.638978958129883</v>
+        <v>46.478281021118157</v>
       </c>
       <c r="T38">
-        <v>44.150866985321038</v>
+        <v>46.534657001495361</v>
       </c>
       <c r="U38">
-        <v>44.040172815322883</v>
+        <v>46.198180675506592</v>
       </c>
       <c r="V38">
         <f t="shared" si="0"/>
-        <v>44.212825334072114</v>
+        <v>46.302414059638977</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -4233,68 +4234,68 @@
         <v>410</v>
       </c>
       <c r="B39">
-        <v>48.487116098403931</v>
+        <v>50.423640966415412</v>
       </c>
       <c r="C39">
-        <v>48.497139692306519</v>
+        <v>49.902562856674187</v>
       </c>
       <c r="D39">
-        <v>48.107848167419426</v>
+        <v>50.085386991500847</v>
       </c>
       <c r="E39">
-        <v>48.456206321716309</v>
+        <v>50.511248111724854</v>
       </c>
       <c r="F39">
-        <v>48.355089664459229</v>
+        <v>50.167466163635247</v>
       </c>
       <c r="G39">
-        <v>48.597838401794426</v>
+        <v>50.285476922988892</v>
       </c>
       <c r="H39">
-        <v>48.052245855331421</v>
+        <v>49.826021194458008</v>
       </c>
       <c r="I39">
-        <v>48.363141059875488</v>
+        <v>50.427920579910278</v>
       </c>
       <c r="J39">
-        <v>47.971580982208252</v>
+        <v>50.755074739456177</v>
       </c>
       <c r="K39">
-        <v>48.360059976577759</v>
+        <v>49.956900358200073</v>
       </c>
       <c r="L39">
-        <v>49.142335653305047</v>
+        <v>50.610265731811523</v>
       </c>
       <c r="M39">
-        <v>48.462862253189087</v>
+        <v>49.982994318008423</v>
       </c>
       <c r="N39">
-        <v>48.515760183334351</v>
+        <v>50.339456081390381</v>
       </c>
       <c r="O39">
-        <v>48.237548589706421</v>
+        <v>50.06536340713501</v>
       </c>
       <c r="P39">
-        <v>48.519334316253662</v>
+        <v>50.110645294189453</v>
       </c>
       <c r="Q39">
-        <v>48.126155614852912</v>
+        <v>50.119382619857788</v>
       </c>
       <c r="R39">
-        <v>48.686206102371223</v>
+        <v>50.292334318161011</v>
       </c>
       <c r="S39">
-        <v>48.21712851524353</v>
+        <v>50.622261047363281</v>
       </c>
       <c r="T39">
-        <v>48.408859729766853</v>
+        <v>50.239553928375237</v>
       </c>
       <c r="U39">
-        <v>48.152134418487549</v>
+        <v>50.418037891387939</v>
       </c>
       <c r="V39">
         <f t="shared" si="0"/>
-        <v>48.385829579830173</v>
+        <v>50.257099676132199</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -4302,68 +4303,68 @@
         <v>420</v>
       </c>
       <c r="B40">
-        <v>52.250885009765618</v>
+        <v>53.53486442565918</v>
       </c>
       <c r="C40">
-        <v>52.433403015136719</v>
+        <v>53.967616558074951</v>
       </c>
       <c r="D40">
-        <v>52.818596601486213</v>
+        <v>54.348767280578613</v>
       </c>
       <c r="E40">
-        <v>52.124048471450813</v>
+        <v>53.708821296691887</v>
       </c>
       <c r="F40">
-        <v>52.366405010223389</v>
+        <v>54.156004667282097</v>
       </c>
       <c r="G40">
-        <v>52.605697631835938</v>
+        <v>54.117183446884162</v>
       </c>
       <c r="H40">
-        <v>52.13150429725647</v>
+        <v>54.142171859741211</v>
       </c>
       <c r="I40">
-        <v>52.385839223861687</v>
+        <v>53.834715127944953</v>
       </c>
       <c r="J40">
-        <v>52.775908708572388</v>
+        <v>54.643959999084473</v>
       </c>
       <c r="K40">
-        <v>52.922493457794189</v>
+        <v>54.476745843887329</v>
       </c>
       <c r="L40">
-        <v>52.620154142379761</v>
+        <v>53.803202390670783</v>
       </c>
       <c r="M40">
-        <v>52.490296363830574</v>
+        <v>53.995068311691277</v>
       </c>
       <c r="N40">
-        <v>52.551877737045288</v>
+        <v>54.132171869277947</v>
       </c>
       <c r="O40">
-        <v>52.198189496994019</v>
+        <v>54.571998834609992</v>
       </c>
       <c r="P40">
-        <v>52.68952488899231</v>
+        <v>54.444173574447632</v>
       </c>
       <c r="Q40">
-        <v>52.570431709289551</v>
+        <v>53.936622142791748</v>
       </c>
       <c r="R40">
-        <v>52.141746759414673</v>
+        <v>54.088663339614868</v>
       </c>
       <c r="S40">
-        <v>52.384875059127808</v>
+        <v>54.334153413772583</v>
       </c>
       <c r="T40">
-        <v>52.500614404678338</v>
+        <v>54.065889596939087</v>
       </c>
       <c r="U40">
-        <v>52.694433212280273</v>
+        <v>54.563265085220337</v>
       </c>
       <c r="V40">
         <f t="shared" si="0"/>
-        <v>52.482846260070801</v>
+        <v>54.143302953243257</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -4371,68 +4372,68 @@
         <v>430</v>
       </c>
       <c r="B41">
-        <v>57.030225992202759</v>
+        <v>58.000335454940803</v>
       </c>
       <c r="C41">
-        <v>56.072554588317871</v>
+        <v>58.118028163909912</v>
       </c>
       <c r="D41">
-        <v>56.281364440917969</v>
+        <v>58.299226760864258</v>
       </c>
       <c r="E41">
-        <v>56.476037979125977</v>
+        <v>58.333463430404663</v>
       </c>
       <c r="F41">
-        <v>56.585981845855713</v>
+        <v>58.575648784637451</v>
       </c>
       <c r="G41">
-        <v>56.780495643615723</v>
+        <v>58.627167463302612</v>
       </c>
       <c r="H41">
-        <v>56.574568033218377</v>
+        <v>58.002971410751343</v>
       </c>
       <c r="I41">
-        <v>56.033344745635993</v>
+        <v>58.076434850692749</v>
       </c>
       <c r="J41">
-        <v>56.209637403488159</v>
+        <v>58.109038591384888</v>
       </c>
       <c r="K41">
-        <v>56.244261264801032</v>
+        <v>58.281093597412109</v>
       </c>
       <c r="L41">
-        <v>56.291626691818237</v>
+        <v>58.366230726242073</v>
       </c>
       <c r="M41">
-        <v>56.630972146987922</v>
+        <v>58.311313152313232</v>
       </c>
       <c r="N41">
-        <v>56.440499067306519</v>
+        <v>58.341963529586792</v>
       </c>
       <c r="O41">
-        <v>56.394227504730218</v>
+        <v>57.891652345657349</v>
       </c>
       <c r="P41">
-        <v>56.477555990219123</v>
+        <v>57.948190927505493</v>
       </c>
       <c r="Q41">
-        <v>56.595833778381348</v>
+        <v>58.440666437149048</v>
       </c>
       <c r="R41">
-        <v>56.399523496627808</v>
+        <v>58.220557451248169</v>
       </c>
       <c r="S41">
-        <v>56.299886703491211</v>
+        <v>58.53580117225647</v>
       </c>
       <c r="T41">
-        <v>56.509621858596802</v>
+        <v>58.219090700149543</v>
       </c>
       <c r="U41">
-        <v>56.688158750534058</v>
+        <v>58.387330055236824</v>
       </c>
       <c r="V41">
         <f t="shared" si="0"/>
-        <v>56.45081889629364</v>
+        <v>58.254310250282288</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -4440,68 +4441,68 @@
         <v>440</v>
       </c>
       <c r="B42">
-        <v>59.927818298339837</v>
+        <v>63.071821689605713</v>
       </c>
       <c r="C42">
-        <v>60.486998558044426</v>
+        <v>68.390543460845947</v>
       </c>
       <c r="D42">
-        <v>60.001387596130371</v>
+        <v>64.075571298599243</v>
       </c>
       <c r="E42">
-        <v>60.087567567825317</v>
+        <v>62.950313806533813</v>
       </c>
       <c r="F42">
-        <v>60.050412178039551</v>
+        <v>62.342905521392822</v>
       </c>
       <c r="G42">
-        <v>60.031612396240227</v>
+        <v>63.462329387664788</v>
       </c>
       <c r="H42">
-        <v>60.124133825302117</v>
+        <v>62.725215196609497</v>
       </c>
       <c r="I42">
-        <v>60.376500129699707</v>
+        <v>63.16136622428894</v>
       </c>
       <c r="J42">
-        <v>60.229042530059807</v>
+        <v>62.402398586273193</v>
       </c>
       <c r="K42">
-        <v>59.958359479904168</v>
+        <v>63.060775995254517</v>
       </c>
       <c r="L42">
-        <v>59.90735936164856</v>
+        <v>62.594342708587646</v>
       </c>
       <c r="M42">
-        <v>59.983168840408332</v>
+        <v>63.157188415527337</v>
       </c>
       <c r="N42">
-        <v>60.582907915115364</v>
+        <v>62.257052898406982</v>
       </c>
       <c r="O42">
-        <v>59.834423542022712</v>
+        <v>63.230206489562988</v>
       </c>
       <c r="P42">
-        <v>60.553604602813721</v>
+        <v>62.523632764816277</v>
       </c>
       <c r="Q42">
-        <v>59.875847578048713</v>
+        <v>63.804685831069953</v>
       </c>
       <c r="R42">
-        <v>60.639328718185418</v>
+        <v>62.513766050338752</v>
       </c>
       <c r="S42">
-        <v>60.441335678100593</v>
+        <v>63.259064912796021</v>
       </c>
       <c r="T42">
-        <v>60.457822799682617</v>
+        <v>62.44716215133667</v>
       </c>
       <c r="U42">
-        <v>59.804784536361687</v>
+        <v>63.335302591323853</v>
       </c>
       <c r="V42">
         <f t="shared" si="0"/>
-        <v>60.167720806598666</v>
+        <v>63.238282299041749</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -4509,68 +4510,68 @@
         <v>450</v>
       </c>
       <c r="B43">
-        <v>64.87561821937561</v>
+        <v>67.455347776412964</v>
       </c>
       <c r="C43">
-        <v>64.677701711654663</v>
+        <v>67.498332262039185</v>
       </c>
       <c r="D43">
-        <v>64.867676496505737</v>
+        <v>67.502057075500488</v>
       </c>
       <c r="E43">
-        <v>64.621805429458618</v>
+        <v>67.361239671707153</v>
       </c>
       <c r="F43">
-        <v>64.532948970794678</v>
+        <v>67.838619470596313</v>
       </c>
       <c r="G43">
-        <v>64.633092403411865</v>
+        <v>67.090643644332886</v>
       </c>
       <c r="H43">
-        <v>64.925263166427612</v>
+        <v>66.756961345672607</v>
       </c>
       <c r="I43">
-        <v>64.926753044128418</v>
+        <v>67.409830570220947</v>
       </c>
       <c r="J43">
-        <v>64.708477258682251</v>
+        <v>67.399049043655396</v>
       </c>
       <c r="K43">
-        <v>64.7593092918396</v>
+        <v>67.868985891342163</v>
       </c>
       <c r="L43">
-        <v>65.241820573806763</v>
+        <v>67.120631217956543</v>
       </c>
       <c r="M43">
-        <v>65.030376672744751</v>
+        <v>67.620175123214722</v>
       </c>
       <c r="N43">
-        <v>64.631281614303589</v>
+        <v>67.659957885742188</v>
       </c>
       <c r="O43">
-        <v>65.043782711029053</v>
+        <v>67.893860340118408</v>
       </c>
       <c r="P43">
-        <v>64.790271997451782</v>
+        <v>67.418451547622681</v>
       </c>
       <c r="Q43">
-        <v>64.931982278823853</v>
+        <v>67.289492845535278</v>
       </c>
       <c r="R43">
-        <v>64.839271783828735</v>
+        <v>67.178442716598511</v>
       </c>
       <c r="S43">
-        <v>64.712609767913818</v>
+        <v>67.689512968063354</v>
       </c>
       <c r="T43">
-        <v>64.547605037689209</v>
+        <v>67.736992120742798</v>
       </c>
       <c r="U43">
-        <v>64.514768600463867</v>
+        <v>67.503278255462646</v>
       </c>
       <c r="V43">
         <f t="shared" si="0"/>
-        <v>64.790620851516721</v>
+        <v>67.464593088626856</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -4578,68 +4579,68 @@
         <v>460</v>
       </c>
       <c r="B44">
-        <v>69.589428901672363</v>
+        <v>72.277611017227173</v>
       </c>
       <c r="C44">
-        <v>68.994303226470947</v>
+        <v>72.730498075485229</v>
       </c>
       <c r="D44">
-        <v>69.093748569488525</v>
+        <v>72.596648216247559</v>
       </c>
       <c r="E44">
-        <v>69.777212619781494</v>
+        <v>72.19279956817627</v>
       </c>
       <c r="F44">
-        <v>69.475775718688965</v>
+        <v>71.965236902236938</v>
       </c>
       <c r="G44">
-        <v>69.525129318237305</v>
+        <v>72.600229978561401</v>
       </c>
       <c r="H44">
-        <v>68.815361738204956</v>
+        <v>72.596808433532715</v>
       </c>
       <c r="I44">
-        <v>69.418285608291626</v>
+        <v>72.332016706466675</v>
       </c>
       <c r="J44">
-        <v>69.254417181015015</v>
+        <v>72.541796922683716</v>
       </c>
       <c r="K44">
-        <v>69.410181283950806</v>
+        <v>72.56175422668457</v>
       </c>
       <c r="L44">
-        <v>69.177844285964966</v>
+        <v>72.525521039962769</v>
       </c>
       <c r="M44">
-        <v>69.990347385406494</v>
+        <v>72.435928344726563</v>
       </c>
       <c r="N44">
-        <v>69.224205732345581</v>
+        <v>72.452258586883545</v>
       </c>
       <c r="O44">
-        <v>69.236563205718994</v>
+        <v>72.323284387588501</v>
       </c>
       <c r="P44">
-        <v>69.509435415267944</v>
+        <v>72.118887901306152</v>
       </c>
       <c r="Q44">
-        <v>69.519898891448975</v>
+        <v>72.868381023406982</v>
       </c>
       <c r="R44">
-        <v>69.198800563812256</v>
+        <v>72.282760620117188</v>
       </c>
       <c r="S44">
-        <v>69.134515285491943</v>
+        <v>72.629083395004272</v>
       </c>
       <c r="T44">
-        <v>69.709322690963745</v>
+        <v>72.37562108039856</v>
       </c>
       <c r="U44">
-        <v>69.509760618209839</v>
+        <v>72.855117082595825</v>
       </c>
       <c r="V44">
         <f t="shared" si="0"/>
-        <v>69.378226912021631</v>
+        <v>72.46311217546463</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
@@ -4647,68 +4648,68 @@
         <v>470</v>
       </c>
       <c r="B45">
-        <v>74.79438853263855</v>
+        <v>77.989601850509644</v>
       </c>
       <c r="C45">
-        <v>74.791951179504395</v>
+        <v>78.691740036010742</v>
       </c>
       <c r="D45">
-        <v>74.700209140777588</v>
+        <v>78.081447601318359</v>
       </c>
       <c r="E45">
-        <v>74.394498109817505</v>
+        <v>78.05016016960144</v>
       </c>
       <c r="F45">
-        <v>74.806788206100464</v>
+        <v>78.388891935348511</v>
       </c>
       <c r="G45">
-        <v>74.5088210105896</v>
+        <v>78.756407022476196</v>
       </c>
       <c r="H45">
-        <v>75.225606679916382</v>
+        <v>78.994494915008545</v>
       </c>
       <c r="I45">
-        <v>74.938892364501953</v>
+        <v>78.499990940093994</v>
       </c>
       <c r="J45">
-        <v>75.054122447967529</v>
+        <v>78.187292575836182</v>
       </c>
       <c r="K45">
-        <v>74.81755256652832</v>
+        <v>78.73737359046936</v>
       </c>
       <c r="L45">
-        <v>74.80276083946228</v>
+        <v>78.153815984725952</v>
       </c>
       <c r="M45">
-        <v>75.163437843322754</v>
+        <v>79.090592861175537</v>
       </c>
       <c r="N45">
-        <v>75.030229330062866</v>
+        <v>79.526739597320557</v>
       </c>
       <c r="O45">
-        <v>75.077720642089844</v>
+        <v>79.290366888046265</v>
       </c>
       <c r="P45">
-        <v>75.647446632385254</v>
+        <v>78.833962917327881</v>
       </c>
       <c r="Q45">
-        <v>75.058986663818359</v>
+        <v>79.379938840866089</v>
       </c>
       <c r="R45">
-        <v>74.700744867324829</v>
+        <v>78.771920680999756</v>
       </c>
       <c r="S45">
-        <v>74.557874202728271</v>
+        <v>78.872133255004883</v>
       </c>
       <c r="T45">
-        <v>74.854766130447388</v>
+        <v>78.454095840454102</v>
       </c>
       <c r="U45">
-        <v>75.419522762298584</v>
+        <v>78.986172437667847</v>
       </c>
       <c r="V45">
         <f t="shared" si="0"/>
-        <v>74.917316007614133</v>
+        <v>78.686856997013095</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
@@ -4716,68 +4717,68 @@
         <v>480</v>
       </c>
       <c r="B46">
-        <v>80.821681261062622</v>
+        <v>84.717402696609497</v>
       </c>
       <c r="C46">
-        <v>81.57387638092041</v>
+        <v>84.545146942138672</v>
       </c>
       <c r="D46">
-        <v>80.969408512115479</v>
+        <v>84.023905515670776</v>
       </c>
       <c r="E46">
-        <v>81.013285875320435</v>
+        <v>84.334891080856323</v>
       </c>
       <c r="F46">
-        <v>80.530610084533691</v>
+        <v>84.76475191116333</v>
       </c>
       <c r="G46">
-        <v>80.885745763778687</v>
+        <v>83.858376502990723</v>
       </c>
       <c r="H46">
-        <v>81.358127593994141</v>
+        <v>84.738481998443604</v>
       </c>
       <c r="I46">
-        <v>80.909197807312012</v>
+        <v>84.291856050491333</v>
       </c>
       <c r="J46">
-        <v>81.400227785110474</v>
+        <v>84.181132555007935</v>
       </c>
       <c r="K46">
-        <v>81.298451900482178</v>
+        <v>83.773002147674561</v>
       </c>
       <c r="L46">
-        <v>80.867985248565674</v>
+        <v>84.352263927459717</v>
       </c>
       <c r="M46">
-        <v>81.088483333587646</v>
+        <v>84.345360279083252</v>
       </c>
       <c r="N46">
-        <v>80.867747068405151</v>
+        <v>83.95092511177063</v>
       </c>
       <c r="O46">
-        <v>80.977615594863892</v>
+        <v>84.903369426727295</v>
       </c>
       <c r="P46">
-        <v>81.586605072021484</v>
+        <v>84.142964363098145</v>
       </c>
       <c r="Q46">
-        <v>81.370050668716431</v>
+        <v>84.393010854721069</v>
       </c>
       <c r="R46">
-        <v>82.04122257232666</v>
+        <v>84.227492094039917</v>
       </c>
       <c r="S46">
-        <v>82.39023232460022</v>
+        <v>84.594754219055176</v>
       </c>
       <c r="T46">
-        <v>81.219721555709839</v>
+        <v>84.129089593887329</v>
       </c>
       <c r="U46">
-        <v>81.629913091659546</v>
+        <v>84.523040771484375</v>
       </c>
       <c r="V46">
         <f t="shared" si="0"/>
-        <v>81.240009474754331</v>
+        <v>84.339560902118677</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
@@ -4785,68 +4786,68 @@
         <v>490</v>
       </c>
       <c r="B47">
-        <v>86.085967063903809</v>
+        <v>90.597615957260132</v>
       </c>
       <c r="C47">
-        <v>86.176452875137329</v>
+        <v>90.38565731048584</v>
       </c>
       <c r="D47">
-        <v>85.884066104888916</v>
+        <v>89.801649332046509</v>
       </c>
       <c r="E47">
-        <v>85.521500825881958</v>
+        <v>89.901911735534668</v>
       </c>
       <c r="F47">
-        <v>85.60718822479248</v>
+        <v>90.279718399047852</v>
       </c>
       <c r="G47">
-        <v>86.014829635620117</v>
+        <v>90.420378684997559</v>
       </c>
       <c r="H47">
-        <v>86.09370756149292</v>
+        <v>90.625151872634888</v>
       </c>
       <c r="I47">
-        <v>85.821319580078125</v>
+        <v>89.917181253433228</v>
       </c>
       <c r="J47">
-        <v>86.613082885742188</v>
+        <v>89.888051271438599</v>
       </c>
       <c r="K47">
-        <v>85.468632936477661</v>
+        <v>90.145994901657104</v>
       </c>
       <c r="L47">
-        <v>85.684720754623413</v>
+        <v>90.024682521820068</v>
       </c>
       <c r="M47">
-        <v>85.761289834976196</v>
+        <v>90.840681314468384</v>
       </c>
       <c r="N47">
-        <v>86.328355550765991</v>
+        <v>91.17388129234314</v>
       </c>
       <c r="O47">
-        <v>85.680712699890137</v>
+        <v>90.229391813278198</v>
       </c>
       <c r="P47">
-        <v>86.067742347717285</v>
+        <v>90.821886539459229</v>
       </c>
       <c r="Q47">
-        <v>85.814527273178101</v>
+        <v>90.101976156234741</v>
       </c>
       <c r="R47">
-        <v>85.569965600967407</v>
+        <v>91.047598600387573</v>
       </c>
       <c r="S47">
-        <v>86.071992158889771</v>
+        <v>90.526999473571777</v>
       </c>
       <c r="T47">
-        <v>85.597224712371826</v>
+        <v>90.293285131454468</v>
       </c>
       <c r="U47">
-        <v>86.109344959259033</v>
+        <v>90.871547222137451</v>
       </c>
       <c r="V47">
         <f t="shared" si="0"/>
-        <v>85.898631179332739</v>
+        <v>90.39476203918457</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -4854,68 +4855,68 @@
         <v>500</v>
       </c>
       <c r="B48">
-        <v>91.828811645507813</v>
+        <v>96.310272216796875</v>
       </c>
       <c r="C48">
-        <v>92.423439502716064</v>
+        <v>96.763431072235107</v>
       </c>
       <c r="D48">
-        <v>92.651752948760986</v>
+        <v>96.991431474685669</v>
       </c>
       <c r="E48">
-        <v>91.750013828277588</v>
+        <v>96.018124341964722</v>
       </c>
       <c r="F48">
-        <v>92.507536172866821</v>
+        <v>97.141207218170166</v>
       </c>
       <c r="G48">
-        <v>92.071961164474487</v>
+        <v>96.660116910934448</v>
       </c>
       <c r="H48">
-        <v>91.637353420257568</v>
+        <v>96.201016426086426</v>
       </c>
       <c r="I48">
-        <v>92.681166648864746</v>
+        <v>97.067208528518677</v>
       </c>
       <c r="J48">
-        <v>91.612099409103394</v>
+        <v>96.905008792877197</v>
       </c>
       <c r="K48">
-        <v>92.07409143447876</v>
+        <v>96.496488571166992</v>
       </c>
       <c r="L48">
-        <v>92.132968902587891</v>
+        <v>96.826560735702515</v>
       </c>
       <c r="M48">
-        <v>91.515471458435059</v>
+        <v>97.282708406448364</v>
       </c>
       <c r="N48">
-        <v>91.965893268585205</v>
+        <v>96.945144653320313</v>
       </c>
       <c r="O48">
-        <v>92.031025171279907</v>
+        <v>97.11468505859375</v>
       </c>
       <c r="P48">
-        <v>92.272274017333984</v>
+        <v>96.975815057754517</v>
       </c>
       <c r="Q48">
-        <v>91.876526355743408</v>
+        <v>97.1455078125</v>
       </c>
       <c r="R48">
-        <v>92.400585174560547</v>
+        <v>96.749678611755371</v>
       </c>
       <c r="S48">
-        <v>92.298975229263306</v>
+        <v>97.259436130523682</v>
       </c>
       <c r="T48">
-        <v>91.539097309112549</v>
+        <v>97.349764347076416</v>
       </c>
       <c r="U48">
-        <v>92.258737802505493</v>
+        <v>97.532920837402344</v>
       </c>
       <c r="V48">
         <f t="shared" si="0"/>
-        <v>92.076489043235782</v>
+        <v>96.886826360225683</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
@@ -4923,68 +4924,68 @@
         <v>510</v>
       </c>
       <c r="B49">
-        <v>97.841094255447388</v>
+        <v>103.3299121856689</v>
       </c>
       <c r="C49">
-        <v>97.233413934707642</v>
+        <v>103.2291166782379</v>
       </c>
       <c r="D49">
-        <v>98.24887228012085</v>
+        <v>102.80161285400391</v>
       </c>
       <c r="E49">
-        <v>97.360761880874634</v>
+        <v>103.9743990898132</v>
       </c>
       <c r="F49">
-        <v>97.399357080459595</v>
+        <v>103.2325584888458</v>
       </c>
       <c r="G49">
-        <v>98.830337524414063</v>
+        <v>102.8555891513824</v>
       </c>
       <c r="H49">
-        <v>97.910632133483887</v>
+        <v>104.02284288406371</v>
       </c>
       <c r="I49">
-        <v>97.658144474029541</v>
+        <v>102.9068531990051</v>
       </c>
       <c r="J49">
-        <v>99.003136157989502</v>
+        <v>103.0459494590759</v>
       </c>
       <c r="K49">
-        <v>97.664922475814819</v>
+        <v>104.3104891777039</v>
       </c>
       <c r="L49">
-        <v>97.561983585357666</v>
+        <v>103.5640251636505</v>
       </c>
       <c r="M49">
-        <v>98.696704149246216</v>
+        <v>103.2173552513123</v>
       </c>
       <c r="N49">
-        <v>98.016997337341309</v>
+        <v>104.0906777381897</v>
       </c>
       <c r="O49">
-        <v>97.642563819885254</v>
+        <v>103.5752463340759</v>
       </c>
       <c r="P49">
-        <v>98.236505746841431</v>
+        <v>103.2148804664612</v>
       </c>
       <c r="Q49">
-        <v>97.786447286605835</v>
+        <v>104.3697354793549</v>
       </c>
       <c r="R49">
-        <v>97.599499225616455</v>
+        <v>103.5692436695099</v>
       </c>
       <c r="S49">
-        <v>98.504284381866455</v>
+        <v>103.42980933189391</v>
       </c>
       <c r="T49">
-        <v>98.070320606231689</v>
+        <v>104.3127255439758</v>
       </c>
       <c r="U49">
-        <v>97.57719612121582</v>
+        <v>103.0983407497406</v>
       </c>
       <c r="V49">
         <f t="shared" si="0"/>
-        <v>97.942158722877508</v>
+        <v>103.50756814479828</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
@@ -4992,68 +4993,68 @@
         <v>520</v>
       </c>
       <c r="B50">
-        <v>104.55148410797121</v>
+        <v>111.11684775352479</v>
       </c>
       <c r="C50">
-        <v>105.38726186752319</v>
+        <v>110.5288138389587</v>
       </c>
       <c r="D50">
-        <v>103.77129411697391</v>
+        <v>110.33313369750979</v>
       </c>
       <c r="E50">
-        <v>104.73851180076601</v>
+        <v>110.72209095954901</v>
       </c>
       <c r="F50">
-        <v>104.9004971981049</v>
+        <v>110.1805477142334</v>
       </c>
       <c r="G50">
-        <v>104.34083962440489</v>
+        <v>110.5421826839447</v>
       </c>
       <c r="H50">
-        <v>104.5292093753815</v>
+        <v>110.1761837005615</v>
       </c>
       <c r="I50">
-        <v>104.8373095989227</v>
+        <v>109.9656391143799</v>
       </c>
       <c r="J50">
-        <v>104.3884196281433</v>
+        <v>110.97264409065249</v>
       </c>
       <c r="K50">
-        <v>104.9455420970917</v>
+        <v>110.80694317817689</v>
       </c>
       <c r="L50">
-        <v>105.2932913303375</v>
+        <v>110.4615170955658</v>
       </c>
       <c r="M50">
-        <v>104.72385144233699</v>
+        <v>110.8032338619232</v>
       </c>
       <c r="N50">
-        <v>105.0539302825928</v>
+        <v>110.55486178398129</v>
       </c>
       <c r="O50">
-        <v>104.0996944904327</v>
+        <v>110.9213197231293</v>
       </c>
       <c r="P50">
-        <v>104.6552677154541</v>
+        <v>111.3148622512817</v>
       </c>
       <c r="Q50">
-        <v>106.21943831443789</v>
+        <v>110.0993480682373</v>
       </c>
       <c r="R50">
-        <v>103.8458983898163</v>
+        <v>110.0134871006012</v>
       </c>
       <c r="S50">
-        <v>103.5721123218536</v>
+        <v>111.105274438858</v>
       </c>
       <c r="T50">
-        <v>104.4410448074341</v>
+        <v>110.7091820240021</v>
       </c>
       <c r="U50">
-        <v>103.93692135810851</v>
+        <v>110.06600213050839</v>
       </c>
       <c r="V50">
         <f t="shared" si="0"/>
-        <v>104.61159099340439</v>
+        <v>110.56970576047897</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
@@ -5061,68 +5062,68 @@
         <v>530</v>
       </c>
       <c r="B51">
-        <v>110.89498472213749</v>
+        <v>118.6563024520874</v>
       </c>
       <c r="C51">
-        <v>111.8666481971741</v>
+        <v>118.24186372756959</v>
       </c>
       <c r="D51">
-        <v>111.5335111618042</v>
+        <v>118.9623527526855</v>
       </c>
       <c r="E51">
-        <v>112.3429899215698</v>
+        <v>117.78129243850709</v>
       </c>
       <c r="F51">
-        <v>111.44214606285099</v>
+        <v>118.4342432022095</v>
       </c>
       <c r="G51">
-        <v>112.3867800235748</v>
+        <v>119.4906671047211</v>
       </c>
       <c r="H51">
-        <v>111.9976983070374</v>
+        <v>118.2219066619873</v>
       </c>
       <c r="I51">
-        <v>112.2928154468536</v>
+        <v>117.5551087856293</v>
       </c>
       <c r="J51">
-        <v>112.2270781993866</v>
+        <v>118.20886468887331</v>
       </c>
       <c r="K51">
-        <v>111.6850962638855</v>
+        <v>118.65625596046451</v>
       </c>
       <c r="L51">
-        <v>112.25743365287779</v>
+        <v>119.1889345645905</v>
       </c>
       <c r="M51">
-        <v>112.63141274452209</v>
+        <v>118.91495013237</v>
       </c>
       <c r="N51">
-        <v>112.2758548259735</v>
+        <v>117.7163419723511</v>
       </c>
       <c r="O51">
-        <v>112.2929594516754</v>
+        <v>119.291357755661</v>
       </c>
       <c r="P51">
-        <v>112.6832060813904</v>
+        <v>118.35906624794011</v>
       </c>
       <c r="Q51">
-        <v>112.9229528903961</v>
+        <v>119.1431260108948</v>
       </c>
       <c r="R51">
-        <v>111.7378463745117</v>
+        <v>120.068240404129</v>
       </c>
       <c r="S51">
-        <v>113.2586741447449</v>
+        <v>118.7458901405334</v>
       </c>
       <c r="T51">
-        <v>112.01749539375309</v>
+        <v>119.6102025508881</v>
       </c>
       <c r="U51">
-        <v>112.8644952774048</v>
+        <v>119.9877908229828</v>
       </c>
       <c r="V51">
         <f t="shared" si="0"/>
-        <v>112.1806039571762</v>
+        <v>118.76173791885375</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
@@ -5130,68 +5131,68 @@
         <v>540</v>
       </c>
       <c r="B52">
-        <v>119.0150372982025</v>
+        <v>124.3179478645325</v>
       </c>
       <c r="C52">
-        <v>119.3493146896362</v>
+        <v>125.71634030342101</v>
       </c>
       <c r="D52">
-        <v>120.3533089160919</v>
+        <v>124.1091272830963</v>
       </c>
       <c r="E52">
-        <v>119.52932596206669</v>
+        <v>124.8654177188873</v>
       </c>
       <c r="F52">
-        <v>119.31858515739439</v>
+        <v>125.418506860733</v>
       </c>
       <c r="G52">
-        <v>119.7112038135529</v>
+        <v>125.7777903079987</v>
       </c>
       <c r="H52">
-        <v>119.30175852775569</v>
+        <v>125.7295963764191</v>
       </c>
       <c r="I52">
-        <v>120.2502677440643</v>
+        <v>125.057861328125</v>
       </c>
       <c r="J52">
-        <v>119.41729831695559</v>
+        <v>124.93205499649051</v>
       </c>
       <c r="K52">
-        <v>119.8977034091949</v>
+        <v>125.4304087162018</v>
       </c>
       <c r="L52">
-        <v>119.9156451225281</v>
+        <v>125.38925004005431</v>
       </c>
       <c r="M52">
-        <v>119.3930823802948</v>
+        <v>125.53174734115601</v>
       </c>
       <c r="N52">
-        <v>120.1168522834778</v>
+        <v>125.51535487174991</v>
       </c>
       <c r="O52">
-        <v>119.7045259475708</v>
+        <v>125.1622903347015</v>
       </c>
       <c r="P52">
-        <v>119.18000602722169</v>
+        <v>124.9942049980164</v>
       </c>
       <c r="Q52">
-        <v>120.3230793476105</v>
+        <v>126.63336491584781</v>
       </c>
       <c r="R52">
-        <v>119.60881948471069</v>
+        <v>125.8979735374451</v>
       </c>
       <c r="S52">
-        <v>120.4883518218994</v>
+        <v>125.4510235786438</v>
       </c>
       <c r="T52">
-        <v>120.60134124755859</v>
+        <v>125.6661536693573</v>
       </c>
       <c r="U52">
-        <v>120.0783109664917</v>
+        <v>125.49562478065489</v>
       </c>
       <c r="V52">
         <f t="shared" si="0"/>
-        <v>119.77769092321395</v>
+        <v>125.35460199117661</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
@@ -5199,68 +5200,68 @@
         <v>550</v>
       </c>
       <c r="B53">
-        <v>126.6014311313629</v>
+        <v>132.82176518440249</v>
       </c>
       <c r="C53">
-        <v>126.8910083770752</v>
+        <v>133.6179704666138</v>
       </c>
       <c r="D53">
-        <v>127.1374044418335</v>
+        <v>132.99912595748901</v>
       </c>
       <c r="E53">
-        <v>126.6802294254303</v>
+        <v>132.59720516204831</v>
       </c>
       <c r="F53">
-        <v>126.78893446922299</v>
+        <v>133.22742629051211</v>
       </c>
       <c r="G53">
-        <v>128.2365486621857</v>
+        <v>133.69925880432129</v>
       </c>
       <c r="H53">
-        <v>126.90268659591671</v>
+        <v>133.19008684158331</v>
       </c>
       <c r="I53">
-        <v>127.93621468544011</v>
+        <v>133.03061056137079</v>
       </c>
       <c r="J53">
-        <v>127.1463406085968</v>
+        <v>132.8136348724365</v>
       </c>
       <c r="K53">
-        <v>126.8089065551758</v>
+        <v>133.66534376144409</v>
       </c>
       <c r="L53">
-        <v>127.4459795951843</v>
+        <v>133.0848824977875</v>
       </c>
       <c r="M53">
-        <v>127.04192137718201</v>
+        <v>133.9018790721893</v>
       </c>
       <c r="N53">
-        <v>127.9061789512634</v>
+        <v>133.06626152992251</v>
       </c>
       <c r="O53">
-        <v>127.6441624164581</v>
+        <v>133.88677048683169</v>
       </c>
       <c r="P53">
-        <v>127.6791138648987</v>
+        <v>133.03400230407709</v>
       </c>
       <c r="Q53">
-        <v>127.5826900005341</v>
+        <v>133.8827471733093</v>
       </c>
       <c r="R53">
-        <v>127.0348656177521</v>
+        <v>134.56360602378851</v>
       </c>
       <c r="S53">
-        <v>128.87179374694821</v>
+        <v>133.36853075027469</v>
       </c>
       <c r="T53">
-        <v>127.84458208084111</v>
+        <v>133.19658064842221</v>
       </c>
       <c r="U53">
-        <v>127.9708235263824</v>
+        <v>133.98810148239139</v>
       </c>
       <c r="V53">
         <f t="shared" si="0"/>
-        <v>127.40759080648422</v>
+        <v>133.3817894935608</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
@@ -5268,68 +5269,68 @@
         <v>560</v>
       </c>
       <c r="B54">
-        <v>134.98627281188959</v>
+        <v>142.66258263587949</v>
       </c>
       <c r="C54">
-        <v>135.19790720939639</v>
+        <v>142.33351707458499</v>
       </c>
       <c r="D54">
-        <v>136.1227688789368</v>
+        <v>142.1095116138458</v>
       </c>
       <c r="E54">
-        <v>135.27731156349179</v>
+        <v>141.81125974655151</v>
       </c>
       <c r="F54">
-        <v>135.9484107494354</v>
+        <v>142.4944665431976</v>
       </c>
       <c r="G54">
-        <v>135.42385315895081</v>
+        <v>142.95308041572571</v>
       </c>
       <c r="H54">
-        <v>136.14138460159299</v>
+        <v>142.2294948101044</v>
       </c>
       <c r="I54">
-        <v>135.9690637588501</v>
+        <v>142.01704239845279</v>
       </c>
       <c r="J54">
-        <v>135.28135108947751</v>
+        <v>142.20671272277829</v>
       </c>
       <c r="K54">
-        <v>135.98733615875241</v>
+        <v>142.3209099769592</v>
       </c>
       <c r="L54">
-        <v>135.77314829826349</v>
+        <v>143.44472146034241</v>
       </c>
       <c r="M54">
-        <v>136.03931331634519</v>
+        <v>141.99024558067319</v>
       </c>
       <c r="N54">
-        <v>135.27106380462649</v>
+        <v>142.92213988304141</v>
       </c>
       <c r="O54">
-        <v>135.86429524421689</v>
+        <v>142.3140983581543</v>
       </c>
       <c r="P54">
-        <v>135.44596004486081</v>
+        <v>142.42024803161621</v>
       </c>
       <c r="Q54">
-        <v>136.28623032569891</v>
+        <v>142.62829995155329</v>
       </c>
       <c r="R54">
-        <v>136.01048946380621</v>
+        <v>142.7862248420715</v>
       </c>
       <c r="S54">
-        <v>136.00039076805109</v>
+        <v>142.01215052604681</v>
       </c>
       <c r="T54">
-        <v>135.8409507274628</v>
+        <v>142.70695018768311</v>
       </c>
       <c r="U54">
-        <v>135.80109047889709</v>
+        <v>143.2683801651001</v>
       </c>
       <c r="V54">
         <f t="shared" si="0"/>
-        <v>135.73342962265014</v>
+        <v>142.4816018462181</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
@@ -5337,68 +5338,68 @@
         <v>570</v>
       </c>
       <c r="B55">
-        <v>144.4437761306763</v>
+        <v>150.24014329910281</v>
       </c>
       <c r="C55">
-        <v>143.70009517669681</v>
+        <v>149.73904061317441</v>
       </c>
       <c r="D55">
-        <v>143.07603621482849</v>
+        <v>151.09419441223139</v>
       </c>
       <c r="E55">
-        <v>143.3730609416962</v>
+        <v>150.45570850372309</v>
       </c>
       <c r="F55">
-        <v>143.2965478897095</v>
+        <v>151.61925363540649</v>
       </c>
       <c r="G55">
-        <v>143.86567974090579</v>
+        <v>150.59482932090759</v>
       </c>
       <c r="H55">
-        <v>143.64243459701541</v>
+        <v>150.4497530460358</v>
       </c>
       <c r="I55">
-        <v>142.93076157569891</v>
+        <v>151.02610111236569</v>
       </c>
       <c r="J55">
-        <v>143.52710747718811</v>
+        <v>150.64907813072199</v>
       </c>
       <c r="K55">
-        <v>143.96356892585749</v>
+        <v>151.48337554931641</v>
       </c>
       <c r="L55">
-        <v>143.64556527137759</v>
+        <v>151.44718933105469</v>
       </c>
       <c r="M55">
-        <v>143.52721166610721</v>
+        <v>151.03450703620911</v>
       </c>
       <c r="N55">
-        <v>143.25024914741519</v>
+        <v>151.25709009170529</v>
       </c>
       <c r="O55">
-        <v>144.12717652320859</v>
+        <v>151.22005581855771</v>
       </c>
       <c r="P55">
-        <v>143.76452589035031</v>
+        <v>151.48729205131531</v>
       </c>
       <c r="Q55">
-        <v>144.42397141456601</v>
+        <v>150.79209327697751</v>
       </c>
       <c r="R55">
-        <v>143.6086821556091</v>
+        <v>151.06164312362671</v>
       </c>
       <c r="S55">
-        <v>144.3969349861145</v>
+        <v>150.98225688934329</v>
       </c>
       <c r="T55">
-        <v>143.9707338809967</v>
+        <v>150.58942556381231</v>
       </c>
       <c r="U55">
-        <v>143.96022891998291</v>
+        <v>151.79242873191831</v>
       </c>
       <c r="V55">
         <f t="shared" si="0"/>
-        <v>143.72471742630006</v>
+        <v>150.9507729768753</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
@@ -5406,68 +5407,68 @@
         <v>580</v>
       </c>
       <c r="B56">
-        <v>153.01368713378909</v>
+        <v>160.2789599895477</v>
       </c>
       <c r="C56">
-        <v>152.48500084877011</v>
+        <v>159.45679354667661</v>
       </c>
       <c r="D56">
-        <v>152.31919121742251</v>
+        <v>161.5274293422699</v>
       </c>
       <c r="E56">
-        <v>153.37415099143979</v>
+        <v>160.2765166759491</v>
       </c>
       <c r="F56">
-        <v>152.6162836551666</v>
+        <v>160.51260566711429</v>
       </c>
       <c r="G56">
-        <v>153.1574749946594</v>
+        <v>159.98122406005859</v>
       </c>
       <c r="H56">
-        <v>152.8082389831543</v>
+        <v>160.3879904747009</v>
       </c>
       <c r="I56">
-        <v>153.82599186897281</v>
+        <v>161.06504964828491</v>
       </c>
       <c r="J56">
-        <v>152.91753888130191</v>
+        <v>160.30698704719541</v>
       </c>
       <c r="K56">
-        <v>153.77507853508001</v>
+        <v>160.5657711029053</v>
       </c>
       <c r="L56">
-        <v>152.53107357025149</v>
+        <v>160.91182088851929</v>
       </c>
       <c r="M56">
-        <v>153.3983070850372</v>
+        <v>161.9001004695892</v>
       </c>
       <c r="N56">
-        <v>153.43415904045099</v>
+        <v>160.37582492828369</v>
       </c>
       <c r="O56">
-        <v>153.46388101577759</v>
+        <v>161.35944795608521</v>
       </c>
       <c r="P56">
-        <v>152.2116520404816</v>
+        <v>160.70598459243769</v>
       </c>
       <c r="Q56">
-        <v>153.98621559143069</v>
+        <v>160.91747403144839</v>
       </c>
       <c r="R56">
-        <v>153.6633038520813</v>
+        <v>160.2210781574249</v>
       </c>
       <c r="S56">
-        <v>152.94508790969849</v>
+        <v>160.8591556549072</v>
       </c>
       <c r="T56">
-        <v>152.5372302532196</v>
+        <v>160.4726057052612</v>
       </c>
       <c r="U56">
-        <v>153.06404566764829</v>
+        <v>162.03835725784299</v>
       </c>
       <c r="V56">
         <f t="shared" si="0"/>
-        <v>153.07637965679169</v>
+        <v>160.70605885982513</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
@@ -5475,68 +5476,68 @@
         <v>590</v>
       </c>
       <c r="B57">
-        <v>160.42074084281921</v>
+        <v>169.8096170425415</v>
       </c>
       <c r="C57">
-        <v>162.75119614601141</v>
+        <v>170.14677238464361</v>
       </c>
       <c r="D57">
-        <v>160.3278629779816</v>
+        <v>169.4533474445343</v>
       </c>
       <c r="E57">
-        <v>160.79455089569089</v>
+        <v>170.17303705215451</v>
       </c>
       <c r="F57">
-        <v>160.67139482498169</v>
+        <v>169.68808889389041</v>
       </c>
       <c r="G57">
-        <v>161.49282741546631</v>
+        <v>169.40544009208679</v>
       </c>
       <c r="H57">
-        <v>160.4993691444397</v>
+        <v>169.01355791091919</v>
       </c>
       <c r="I57">
-        <v>161.12442445754999</v>
+        <v>169.7980172634125</v>
       </c>
       <c r="J57">
-        <v>162.18682217597959</v>
+        <v>170.282261133194</v>
       </c>
       <c r="K57">
-        <v>165.1750576496124</v>
+        <v>170.0727524757385</v>
       </c>
       <c r="L57">
-        <v>160.6491425037384</v>
+        <v>170.0493350028992</v>
       </c>
       <c r="M57">
-        <v>160.94013833999631</v>
+        <v>169.72529315948489</v>
       </c>
       <c r="N57">
-        <v>161.1098749637604</v>
+        <v>171.4050426483154</v>
       </c>
       <c r="O57">
-        <v>161.2246861457825</v>
+        <v>169.87060523033139</v>
       </c>
       <c r="P57">
-        <v>161.81987190246579</v>
+        <v>170.00068736076349</v>
       </c>
       <c r="Q57">
-        <v>160.8764462471008</v>
+        <v>170.01949143409729</v>
       </c>
       <c r="R57">
-        <v>160.762580871582</v>
+        <v>169.77461647987371</v>
       </c>
       <c r="S57">
-        <v>160.88477206230161</v>
+        <v>170.30754256248471</v>
       </c>
       <c r="T57">
-        <v>161.94558620452881</v>
+        <v>171.13556671142581</v>
       </c>
       <c r="U57">
-        <v>161.69108176231379</v>
+        <v>170.93167901039121</v>
       </c>
       <c r="V57">
         <f t="shared" si="0"/>
-        <v>161.36742137670518</v>
+        <v>170.05313756465912</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
@@ -5544,68 +5545,68 @@
         <v>600</v>
       </c>
       <c r="B58">
-        <v>171.81610226631159</v>
+        <v>181.32290554046631</v>
       </c>
       <c r="C58">
-        <v>172.57305240631101</v>
+        <v>183.24658155441281</v>
       </c>
       <c r="D58">
-        <v>172.33723759651181</v>
+        <v>180.50223851203921</v>
       </c>
       <c r="E58">
-        <v>172.5758681297302</v>
+        <v>181.20407319068909</v>
       </c>
       <c r="F58">
-        <v>172.15449190139771</v>
+        <v>181.2155194282532</v>
       </c>
       <c r="G58">
-        <v>173.1979584693909</v>
+        <v>183.31421518325811</v>
       </c>
       <c r="H58">
-        <v>172.4822328090668</v>
+        <v>181.7174015045166</v>
       </c>
       <c r="I58">
-        <v>172.1582179069519</v>
+        <v>181.90876340866089</v>
       </c>
       <c r="J58">
-        <v>172.70947051048279</v>
+        <v>183.0085620880127</v>
       </c>
       <c r="K58">
-        <v>173.7759704589844</v>
+        <v>181.8639600276947</v>
       </c>
       <c r="L58">
-        <v>172.66375946998599</v>
+        <v>183.20313549041751</v>
       </c>
       <c r="M58">
-        <v>173.20256805419919</v>
+        <v>182.71137619018549</v>
       </c>
       <c r="N58">
-        <v>173.9754345417023</v>
+        <v>183.49193072319031</v>
       </c>
       <c r="O58">
-        <v>171.6624045372009</v>
+        <v>182.8441686630249</v>
       </c>
       <c r="P58">
-        <v>172.19282102584839</v>
+        <v>182.7039084434509</v>
       </c>
       <c r="Q58">
-        <v>171.14842772483831</v>
+        <v>183.78771281242371</v>
       </c>
       <c r="R58">
-        <v>173.41631698608401</v>
+        <v>184.3294818401337</v>
       </c>
       <c r="S58">
-        <v>176.15349149703979</v>
+        <v>182.70987105369571</v>
       </c>
       <c r="T58">
-        <v>172.5675177574158</v>
+        <v>183.64988541603091</v>
       </c>
       <c r="U58">
-        <v>173.40930581092829</v>
+        <v>184.79002404212949</v>
       </c>
       <c r="V58">
         <f t="shared" si="0"/>
-        <v>172.8086324930191</v>
+        <v>182.6762857556343</v>
       </c>
     </row>
   </sheetData>
